--- a/activity/POTStudyZone/POTStudyZone.xlsx
+++ b/activity/POTStudyZone/POTStudyZone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\POTStudyZone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15484D2D-9487-4C5F-A43E-F74F628B9D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640682D7-269D-4126-BB49-8D1A3D0BEC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
   <si>
     <t>Acción</t>
   </si>
@@ -248,13 +248,6 @@
   </si>
   <si>
     <t>Polígonos de delimitación de las áreas de conservación y protección de los recursos naturales, paisajísticos, geográficos y ambientales, incluyendo las áreas de amenazas y riesgos, o que formen parte de los sistemas de provisión de los servicios públicos domiciliarios o de disposición final de desechos sólidos o líquidos</t>
-  </si>
-  <si>
-    <t>Polígonos de delimitación de zonas suburbanas</t>
-  </si>
-  <si>
-    <t>Polígonos de delimitación de centros poblados rurales.
-Puntos de localización de equipamientos sociales.</t>
   </si>
   <si>
     <t>Polígonos de delimitación de los sistemas de aprovisionamiento de los servicios de agua potable y saneamiento básico de las zonas rurales</t>
@@ -357,10 +350,6 @@
     <t>Revisión de alcance e implementación municipal</t>
   </si>
   <si>
-    <t>Polígonos de clasificación del territorio: urbano, expansión urbana y rural.
-Polígono perímetro de servicios públicos o sanitario (verificar que el área urbana no exceda este perímetro)</t>
-  </si>
-  <si>
     <t>8, 13, 31</t>
   </si>
   <si>
@@ -373,22 +362,68 @@
     <t>12, 16, 17, 31, 32, 34</t>
   </si>
   <si>
-    <t>2.5 La clasificación del territorio en suelo urbano (zona urbana consolidada con delimitación o fijación de perímetro con inclusión centros poblados de corregimientos), de expansión urbana (definido en programas de ejecución, inclusión de áreas de desarrollo concertado) y rural (suburbano, protección, rural), con la correspondiente fijación del perímetro del suelo urbano, en los términos en que estas categorías quedan definidas en el Capítulo IV de la presente ley, y siguiendo los lineamientos de las regulaciones del Ministerio del Medio Ambiente en cuanto a usos del suelo, exclusivamente en los aspectos ambientales y de conformidad con los objetivos y criterios definidos por las Areas Metropolitanas en las normas obligatoriamente generales, para el caso de los municipios que las integran.
+    <t>2. La localización y dimensionamiento de la infraestructura para el sistema vial, de transporte y la adecuada intercomunicación de todas las áreas urbanas y la proyectada para las áreas de expansión; la disponibilidad de redes primarias y secundarias de servicios públicos (energía, acueducto, alcantarillado, gas, comunicación) a corto y mediano plazo; la localización prevista para los equipamientos colectivos y espacios libres para parques y zonas verdes públicas de escala urbana o zonal (espacio público), y el señalamiento de las cesiones urbanísticas gratuitas correspondientes a dichas infraestructuras.
+EOT: la estructura general del suelo urbano, en especial, el plan vial y de servicios públicos domiciliarios.</t>
+  </si>
+  <si>
+    <t>14, 33</t>
+  </si>
+  <si>
+    <t>2. El señalamiento de las condiciones de protección, conservación y mejoramiento de las zonas de producción agropecuaria, forestal o minera.
+Destinación explotación recursos naturales (opcional).
+Actividades análogas (opcional).</t>
+  </si>
+  <si>
+    <t>8, 12, 16</t>
+  </si>
+  <si>
+    <t>8, 13, 16, 17, 31, 37</t>
+  </si>
+  <si>
+    <t>8, 13, 16, 17, 35</t>
+  </si>
+  <si>
+    <t>8, 14, 17, 35</t>
+  </si>
+  <si>
+    <t>8, 13, 39</t>
+  </si>
+  <si>
+    <t>8, 13, 16, 31</t>
+  </si>
+  <si>
+    <t>8, 13, 52</t>
+  </si>
+  <si>
+    <t>8, 14</t>
+  </si>
+  <si>
+    <t>2.2 El señalamiento de las áreas de reserva y medidas para la protección del medio ambiente, conservación de los recursos naturales y defensa del paisaje, de conformidad con lo dispuesto en la Ley 99 de 1993 y el Código de Recursos Naturales, así como de las áreas de conservación y protección del patrimonio histórico, cultural y arquitectónico.
+Identificar y caracterizar los ecosistemas de importancia ambiental del municipio, de común acuerdo con la autoridad ambiental de la respectiva jurisdicción, para su protección y manejo adecuados</t>
+  </si>
+  <si>
+    <t>Polígonos de delimitación de áreas de reserva, conservación de recursos naturales, defensa del paisaje, protección del patrimonio.
+Polígonos de Identificación y caracterización de los ecosistemas de importancia ambiental del municipio.</t>
+  </si>
+  <si>
+    <t>2.4 La localización de actividades, infraestructuras y equipamientos básicos para garantizar adecuadas relaciones funcionales entre asentamientos y zonas urbanas y rurales.
+Localizar y señalar las características de la infraestructura para disposición y tratamiento de los residuos sólidos, líquidos, tóxicos y peligrosos.
+Localizar y señalar las características de la infraestructura equipamientos de servicios de interés público y social ( tales como centros docentes y hospitalarios, aeropuertos y lugares análogos).
+Determinar y reservar terrenos para la expansión de las infraestructuras urbanas.
+Expropiar los terrenos y las mejoras cuya adquisición se declare como de utilidad pública o interés social.
+Identificar y localizar, cuando lo requieran las autoridades nacionales y previa concertación con ellas, los suelos para la infraestructura militar y policial estratégica básica para la atención de las necesidades de seguridad y de defensa nacional. (condicionado)</t>
+  </si>
+  <si>
+    <t>Puntos o polígonos de localización de actividades, infraestructuras y equipamientos básicos para garantizar adecuadas relaciones funcionales entre asentamientos y zonas urbanas y rurales, y para la disposición y tratamiento de residuos, terrenos en reserva para expansión de infraestructuras urbanas, terrenos y mejoras declarados como de utilidad pública o interés social, suelos para la infraestructura militar y policial estratégica básica (condicional).</t>
+  </si>
+  <si>
+    <t>Revisión de componentes y acciones del plan de ordenamiento territorial y su implementación en acuerdos y/o decretos municipales o distritales.</t>
+  </si>
+  <si>
+    <t>2.5 La clasificación del territorio en suelo urbano (zona urbana consolidada  con inclusión centros poblados de corregimientos), de expansión urbana (definido en programas de ejecución, inclusión de áreas de desarrollo concertado) y rural (suburbano, protección, rural), con la correspondiente fijación del perímetro del suelo urbano, en los términos en que estas categorías quedan definidas en el Capítulo IV de la presente ley, y siguiendo los lineamientos de las regulaciones del Ministerio del Medio Ambiente en cuanto a usos del suelo, exclusivamente en los aspectos ambientales y de conformidad con los objetivos y criterios definidos por las Areas Metropolitanas en las normas obligatoriamente generales, para el caso de los municipios que las integran.
 Perímetro urbano no mayor al perímetro de servicios públicos o sanitario.
 En el suelo suburbano se incluyen opcionalmente los corredores urbanos interregionales.
 EOT: División del territorio en suelo urbano y rural.</t>
-  </si>
-  <si>
-    <t>2. La localización y dimensionamiento de la infraestructura para el sistema vial, de transporte y la adecuada intercomunicación de todas las áreas urbanas y la proyectada para las áreas de expansión; la disponibilidad de redes primarias y secundarias de servicios públicos (energía, acueducto, alcantarillado, gas, comunicación) a corto y mediano plazo; la localización prevista para los equipamientos colectivos y espacios libres para parques y zonas verdes públicas de escala urbana o zonal (espacio público), y el señalamiento de las cesiones urbanísticas gratuitas correspondientes a dichas infraestructuras.
-EOT: la estructura general del suelo urbano, en especial, el plan vial y de servicios públicos domiciliarios.</t>
-  </si>
-  <si>
-    <t>14, 33</t>
-  </si>
-  <si>
-    <t>2. El señalamiento de las condiciones de protección, conservación y mejoramiento de las zonas de producción agropecuaria, forestal o minera.
-Destinación explotación recursos naturales (opcional).
-Actividades análogas (opcional).</t>
   </si>
   <si>
     <t>Sistema vial.
@@ -398,53 +433,25 @@
 Red eléctrica.
 Red gas natural.
 Redes de comunicación.
-Puntos y/o polígonos de localización o delimitación de equipamientos,  parques y zonas verdes públicas.</t>
-  </si>
-  <si>
-    <t>8, 12, 16</t>
-  </si>
-  <si>
-    <t>8, 13, 16, 17, 31, 37</t>
-  </si>
-  <si>
-    <t>8, 13, 16, 17, 35</t>
-  </si>
-  <si>
-    <t>8, 14, 17, 35</t>
-  </si>
-  <si>
-    <t>8, 13, 39</t>
-  </si>
-  <si>
-    <t>8, 13, 16, 31</t>
-  </si>
-  <si>
-    <t>8, 13, 52</t>
-  </si>
-  <si>
-    <t>8, 14</t>
-  </si>
-  <si>
-    <t>2.2 El señalamiento de las áreas de reserva y medidas para la protección del medio ambiente, conservación de los recursos naturales y defensa del paisaje, de conformidad con lo dispuesto en la Ley 99 de 1993 y el Código de Recursos Naturales, así como de las áreas de conservación y protección del patrimonio histórico, cultural y arquitectónico.
-Identificar y caracterizar los ecosistemas de importancia ambiental del municipio, de común acuerdo con la autoridad ambiental de la respectiva jurisdicción, para su protección y manejo adecuados</t>
-  </si>
-  <si>
-    <t>Polígonos de delimitación de áreas de reserva, conservación de recursos naturales, defensa del paisaje, protección del patrimonio.
-Polígonos de Identificación y caracterización de los ecosistemas de importancia ambiental del municipio.</t>
-  </si>
-  <si>
-    <t>2.4 La localización de actividades, infraestructuras y equipamientos básicos para garantizar adecuadas relaciones funcionales entre asentamientos y zonas urbanas y rurales.
-Localizar y señalar las características de la infraestructura para disposición y tratamiento de los residuos sólidos, líquidos, tóxicos y peligrosos.
-Localizar y señalar las características de la infraestructura equipamientos de servicios de interés público y social ( tales como centros docentes y hospitalarios, aeropuertos y lugares análogos).
-Determinar y reservar terrenos para la expansión de las infraestructuras urbanas.
-Expropiar los terrenos y las mejoras cuya adquisición se declare como de utilidad pública o interés social.
-Identificar y localizar, cuando lo requieran las autoridades nacionales y previa concertación con ellas, los suelos para la infraestructura militar y policial estratégica básica para la atención de las necesidades de seguridad y de defensa nacional. (condicionado)</t>
-  </si>
-  <si>
-    <t>Puntos o polígonos de localización de actividades, infraestructuras y equipamientos básicos para garantizar adecuadas relaciones funcionales entre asentamientos y zonas urbanas y rurales, y para la disposición y tratamiento de residuos, terrenos en reserva para expansión de infraestructuras urbanas, terrenos y mejoras declarados como de utilidad pública o interés social, suelos para la infraestructura militar y policial estratégica básica (condicional).</t>
-  </si>
-  <si>
-    <t>Revisión de componentes y acciones del plan de ordenamiento territorial y su implementación en acuerdos y/o decretos municipales o distritales.</t>
+Puntos y/o polígonos de localización o delimitación de equipamientos.
+Sistema de espacio público (parques y zonas verdes públicas).</t>
+  </si>
+  <si>
+    <t>Polígonos de clasificación del territorio: urbano, expansión urbana y rural.
+Polígono perímetro de servicios públicos o sanitario (verificar que el área urbana no exceda este perímetro).</t>
+  </si>
+  <si>
+    <t>Polígonos de delimitación de zonas suburbanas.
+Polígonos usos del suelo.</t>
+  </si>
+  <si>
+    <t>Polígonos de delimitación de centros poblados rurales.
+Puntos de localización de equipamientos sociales.
+Sistema de espacio público en centros poblados y zonas suburbanas.
+Polígonos usos del suelo.</t>
+  </si>
+  <si>
+    <t>Polígonos usos del suelo urbano.</t>
   </si>
 </sst>
 </file>
@@ -1037,7 +1044,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1189,10 +1196,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1563,39 +1567,37 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B3" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
+      <c r="B3" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="51">
         <v>29999</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
+      <c r="F4" s="52"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B5" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="55" t="s">
+      <c r="B5" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="57"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
     </row>
     <row r="6" spans="2:6" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
@@ -1685,23 +1687,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AB5CB8-4A61-4A7E-8EB6-2F4C47C44909}">
-  <dimension ref="A2:L35"/>
+  <dimension ref="B2:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.69140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.07421875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="59.23046875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.61328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="51.15234375" style="5" customWidth="1"/>
     <col min="4" max="4" width="7.07421875" style="5" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="5.921875" style="43" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="3.23046875" style="43" customWidth="1"/>
+    <col min="5" max="5" width="5.921875" style="43" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="0.3828125" style="43" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="3.23046875" style="43" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="23.765625" style="5" customWidth="1"/>
     <col min="9" max="9" width="14.61328125" style="5" customWidth="1"/>
     <col min="10" max="10" width="15.4609375" style="5" customWidth="1"/>
@@ -1712,27 +1715,27 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B2" s="50" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="70"/>
-    </row>
-    <row r="4" spans="2:12" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="69"/>
+    </row>
+    <row r="4" spans="2:12" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B4" s="31" t="s">
         <v>45</v>
       </c>
@@ -1748,17 +1751,17 @@
       <c r="F4" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="G4" s="60" t="s">
         <v>33</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I4" s="33" t="s">
         <v>48</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K4" s="33" t="s">
         <v>2</v>
@@ -1767,9 +1770,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B5" s="41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>25</v>
@@ -1783,7 +1786,7 @@
       <c r="F5" s="45">
         <v>1</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="61">
         <v>1</v>
       </c>
       <c r="H5" s="38"/>
@@ -1792,8 +1795,8 @@
       <c r="K5" s="39"/>
       <c r="L5" s="40"/>
     </row>
-    <row r="6" spans="2:12" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="B6" s="72" t="s">
+    <row r="6" spans="2:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="B6" s="71" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="27" t="s">
@@ -1808,7 +1811,7 @@
       <c r="F6" s="46">
         <v>1</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="62">
         <v>0</v>
       </c>
       <c r="H6" s="19" t="s">
@@ -1820,7 +1823,7 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="2:12" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="71" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="27" t="s">
@@ -1835,7 +1838,7 @@
       <c r="F7" s="46">
         <v>0</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="62">
         <v>0</v>
       </c>
       <c r="H7" s="19"/>
@@ -1845,7 +1848,7 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="2:12" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="71" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="27" t="s">
@@ -1860,7 +1863,7 @@
       <c r="F8" s="46">
         <v>0</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="62">
         <v>0</v>
       </c>
       <c r="H8" s="19"/>
@@ -1870,14 +1873,14 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:12" ht="102" x14ac:dyDescent="0.4">
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="71" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E9" s="46">
         <v>1</v>
@@ -1885,7 +1888,7 @@
       <c r="F9" s="46">
         <v>1</v>
       </c>
-      <c r="G9" s="63">
+      <c r="G9" s="62">
         <v>0</v>
       </c>
       <c r="H9" s="19"/>
@@ -1895,7 +1898,7 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="2:12" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="71" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -1910,7 +1913,7 @@
       <c r="F10" s="46">
         <v>1</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="62">
         <v>0</v>
       </c>
       <c r="H10" s="19" t="s">
@@ -1922,14 +1925,14 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:12" ht="160.30000000000001" x14ac:dyDescent="0.4">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="71" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E11" s="46">
         <v>1</v>
@@ -1937,11 +1940,11 @@
       <c r="F11" s="46">
         <v>1</v>
       </c>
-      <c r="G11" s="63">
+      <c r="G11" s="62">
         <v>0</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1949,14 +1952,14 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="2:12" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="71" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E12" s="46">
         <v>1</v>
@@ -1964,7 +1967,7 @@
       <c r="F12" s="46">
         <v>1</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="62">
         <v>0</v>
       </c>
       <c r="H12" s="19" t="s">
@@ -1976,14 +1979,14 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="2:12" ht="349.75" x14ac:dyDescent="0.4">
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="71" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E13" s="46">
         <v>1</v>
@@ -1991,11 +1994,11 @@
       <c r="F13" s="46">
         <v>1</v>
       </c>
-      <c r="G13" s="63">
+      <c r="G13" s="62">
         <v>0</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2003,14 +2006,14 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="2:12" ht="306" x14ac:dyDescent="0.4">
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="71" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E14" s="46">
         <v>1</v>
@@ -2018,11 +2021,11 @@
       <c r="F14" s="46">
         <v>1</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="62">
         <v>1</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2030,27 +2033,27 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B15" s="73"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="47"/>
       <c r="F15" s="47"/>
-      <c r="G15" s="64"/>
+      <c r="G15" s="63"/>
       <c r="H15" s="26"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:12" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:12" ht="131.15" x14ac:dyDescent="0.4">
       <c r="B16" s="41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E16" s="48">
         <v>1</v>
@@ -2058,7 +2061,7 @@
       <c r="F16" s="48">
         <v>0</v>
       </c>
-      <c r="G16" s="65">
+      <c r="G16" s="64">
         <v>0</v>
       </c>
       <c r="H16" s="35"/>
@@ -2068,26 +2071,26 @@
       <c r="L16" s="37"/>
     </row>
     <row r="17" spans="2:12" ht="189.45" x14ac:dyDescent="0.4">
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="71" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>95</v>
-      </c>
       <c r="E17" s="46">
         <v>1</v>
       </c>
       <c r="F17" s="49">
         <v>1</v>
       </c>
-      <c r="G17" s="66">
+      <c r="G17" s="65">
         <v>1</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
@@ -2095,14 +2098,14 @@
       <c r="L17" s="30"/>
     </row>
     <row r="18" spans="2:12" ht="145.75" x14ac:dyDescent="0.4">
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="71" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E18" s="46">
         <v>1</v>
@@ -2110,7 +2113,7 @@
       <c r="F18" s="49">
         <v>1</v>
       </c>
-      <c r="G18" s="66">
+      <c r="G18" s="65">
         <v>1</v>
       </c>
       <c r="H18" s="19" t="s">
@@ -2122,7 +2125,7 @@
       <c r="L18" s="30"/>
     </row>
     <row r="19" spans="2:12" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="71" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="28" t="s">
@@ -2137,7 +2140,7 @@
       <c r="F19" s="49">
         <v>0</v>
       </c>
-      <c r="G19" s="66">
+      <c r="G19" s="65">
         <v>0</v>
       </c>
       <c r="H19" s="19" t="s">
@@ -2149,14 +2152,14 @@
       <c r="L19" s="30"/>
     </row>
     <row r="20" spans="2:12" ht="160.30000000000001" x14ac:dyDescent="0.4">
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="71" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E20" s="46">
         <v>1</v>
@@ -2164,7 +2167,7 @@
       <c r="F20" s="49">
         <v>1</v>
       </c>
-      <c r="G20" s="66">
+      <c r="G20" s="65">
         <v>0</v>
       </c>
       <c r="H20" s="19" t="s">
@@ -2176,14 +2179,14 @@
       <c r="L20" s="30"/>
     </row>
     <row r="21" spans="2:12" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="71" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="28" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E21" s="46">
         <v>1</v>
@@ -2191,7 +2194,7 @@
       <c r="F21" s="49">
         <v>0</v>
       </c>
-      <c r="G21" s="66">
+      <c r="G21" s="65">
         <v>0</v>
       </c>
       <c r="H21" s="19" t="s">
@@ -2203,14 +2206,14 @@
       <c r="L21" s="30"/>
     </row>
     <row r="22" spans="2:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="71" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="28" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E22" s="46">
         <v>1</v>
@@ -2218,7 +2221,7 @@
       <c r="F22" s="49">
         <v>0</v>
       </c>
-      <c r="G22" s="66">
+      <c r="G22" s="65">
         <v>0</v>
       </c>
       <c r="H22" s="19" t="s">
@@ -2230,14 +2233,14 @@
       <c r="L22" s="30"/>
     </row>
     <row r="23" spans="2:12" ht="174.9" x14ac:dyDescent="0.4">
-      <c r="B23" s="72" t="s">
+      <c r="B23" s="71" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E23" s="46">
         <v>1</v>
@@ -2245,7 +2248,7 @@
       <c r="F23" s="49">
         <v>0</v>
       </c>
-      <c r="G23" s="66">
+      <c r="G23" s="65">
         <v>0</v>
       </c>
       <c r="H23" s="28" t="s">
@@ -2257,14 +2260,14 @@
       <c r="L23" s="30"/>
     </row>
     <row r="24" spans="2:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="71" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="28" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E24" s="46">
         <v>1</v>
@@ -2272,7 +2275,7 @@
       <c r="F24" s="49">
         <v>0</v>
       </c>
-      <c r="G24" s="66">
+      <c r="G24" s="65">
         <v>0</v>
       </c>
       <c r="H24" s="19" t="s">
@@ -2284,7 +2287,7 @@
       <c r="L24" s="30"/>
     </row>
     <row r="25" spans="2:12" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="71" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="28" t="s">
@@ -2299,7 +2302,7 @@
       <c r="F25" s="49">
         <v>1</v>
       </c>
-      <c r="G25" s="66">
+      <c r="G25" s="65">
         <v>0</v>
       </c>
       <c r="H25" s="28" t="s">
@@ -2311,7 +2314,7 @@
       <c r="L25" s="30"/>
     </row>
     <row r="26" spans="2:12" ht="218.6" x14ac:dyDescent="0.4">
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="71" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="28" t="s">
@@ -2326,31 +2329,33 @@
       <c r="F26" s="49">
         <v>1</v>
       </c>
-      <c r="G26" s="66">
-        <v>1</v>
-      </c>
-      <c r="H26" s="28"/>
+      <c r="G26" s="65">
+        <v>1</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>107</v>
+      </c>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
       <c r="K26" s="29"/>
       <c r="L26" s="30"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B27" s="74"/>
+      <c r="B27" s="73"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
       <c r="E27" s="49"/>
       <c r="F27" s="49"/>
-      <c r="G27" s="66"/>
+      <c r="G27" s="65"/>
       <c r="H27" s="28"/>
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
       <c r="K27" s="29"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="2:12" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:12" ht="204" x14ac:dyDescent="0.4">
       <c r="B28" s="41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C28" s="38" t="s">
         <v>40</v>
@@ -2364,7 +2369,7 @@
       <c r="F28" s="45">
         <v>1</v>
       </c>
-      <c r="G28" s="62">
+      <c r="G28" s="61">
         <v>1</v>
       </c>
       <c r="H28" s="38"/>
@@ -2374,14 +2379,14 @@
       <c r="L28" s="40"/>
     </row>
     <row r="29" spans="2:12" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="71" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E29" s="49">
         <v>1</v>
@@ -2389,7 +2394,7 @@
       <c r="F29" s="49">
         <v>1</v>
       </c>
-      <c r="G29" s="66">
+      <c r="G29" s="65">
         <v>0</v>
       </c>
       <c r="H29" s="28"/>
@@ -2399,14 +2404,14 @@
       <c r="L29" s="30"/>
     </row>
     <row r="30" spans="2:12" ht="174.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="71" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="28" t="s">
         <v>54</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E30" s="49">
         <v>1</v>
@@ -2414,7 +2419,7 @@
       <c r="F30" s="49">
         <v>1</v>
       </c>
-      <c r="G30" s="66">
+      <c r="G30" s="65">
         <v>1</v>
       </c>
       <c r="H30" s="19" t="s">
@@ -2426,7 +2431,7 @@
       <c r="L30" s="30"/>
     </row>
     <row r="31" spans="2:12" ht="102" x14ac:dyDescent="0.4">
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="71" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -2441,26 +2446,26 @@
       <c r="F31" s="49">
         <v>1</v>
       </c>
-      <c r="G31" s="66">
+      <c r="G31" s="65">
         <v>0</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
       <c r="L31" s="30"/>
     </row>
-    <row r="32" spans="2:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="B32" s="72" t="s">
+    <row r="32" spans="2:12" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="B32" s="71" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="28" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E32" s="49">
         <v>1</v>
@@ -2468,11 +2473,11 @@
       <c r="F32" s="49">
         <v>1</v>
       </c>
-      <c r="G32" s="66">
+      <c r="G32" s="65">
         <v>0</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
@@ -2480,7 +2485,7 @@
       <c r="L32" s="30"/>
     </row>
     <row r="33" spans="2:12" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="B33" s="72" t="s">
+      <c r="B33" s="71" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="28" t="s">
@@ -2495,11 +2500,11 @@
       <c r="F33" s="49">
         <v>1</v>
       </c>
-      <c r="G33" s="66">
+      <c r="G33" s="65">
         <v>0</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
@@ -2507,7 +2512,7 @@
       <c r="L33" s="30"/>
     </row>
     <row r="34" spans="2:12" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="B34" s="72" t="s">
+      <c r="B34" s="71" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="28" t="s">
@@ -2522,11 +2527,11 @@
       <c r="F34" s="49">
         <v>1</v>
       </c>
-      <c r="G34" s="66">
+      <c r="G34" s="65">
         <v>1</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
@@ -2534,12 +2539,12 @@
       <c r="L34" s="30"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B35" s="73"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
       <c r="E35" s="47"/>
       <c r="F35" s="47"/>
-      <c r="G35" s="64"/>
+      <c r="G35" s="63"/>
       <c r="H35" s="26"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>

--- a/activity/POTStudyZone/POTStudyZone.xlsx
+++ b/activity/POTStudyZone/POTStudyZone.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\POTStudyZone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640682D7-269D-4126-BB49-8D1A3D0BEC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA09ED7-A806-4FF9-AEDD-476FA11150D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Setup" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ComponenteAccion!$B$4:$L$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ComponenteAccion!$B$4:$J$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,17 +41,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="108">
-  <si>
-    <t>Acción</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="127">
   <si>
     <t>Observaciones</t>
   </si>
   <si>
-    <t>Mapa</t>
-  </si>
-  <si>
     <t>Población</t>
   </si>
   <si>
@@ -187,18 +181,10 @@
     <t>13, 16</t>
   </si>
   <si>
-    <t>Implementada en municipio (Sí/No)</t>
-  </si>
-  <si>
     <t>13, 16, 17</t>
   </si>
   <si>
     <t>14, 17</t>
-  </si>
-  <si>
-    <t>11. La expedición de normas urbanísticas en los términos y según los alcances que se establecen en el artículo 15 de la presente ley. 
-PBOT: La expedición de normas urbanísticas generales sobre usos e intensidad de usos del suelo, actuaciones, tratamientos y procedimientos de parcelación, urbanización, construcción e incorporación al desarrollo de las diferentes zonas comprendidas dentro del perímetro urbano y el suelo de expansión. Se incluirán especificaciones de cesiones urbanísticas, aislamientos, volumetrías y alturas; la determinación de las zonas de mejoramiento integral, si las hay, y las demás que consideren convenientes las autoridades distritales o municipales.
-EOT: normas urbanísticas requeridas para las actuaciones de parcelación, urbanización y construcción.</t>
   </si>
   <si>
     <t>3. La delimitación, en suelo urbano y de expansión urbana, de las áreas de conservación y protección de los recursos naturales, paisajísticos y de conjuntos urbanos, históricos y culturales, de conformidad con la legislación general aplicable a cada caso y las normas específicas que los complementan en la presente ley; así como de las áreas expuestas a amenazas y riesgos naturales.
@@ -213,50 +199,7 @@
 EOT: la determinación de las zonas de amenazas y riesgos naturales y las medidas de protección, las zonas de conservación y protección de recursos naturales y ambientales.</t>
   </si>
   <si>
-    <t>Polígonos de delimitación urbana de las áreas de conservación y protección de los recursos naturales, paisajísticos y de conjuntos urbanos, históricos y culturales.
-Polígonos de delimitación urbana de áreas expuestas a amenazas y riesgos naturales.</t>
-  </si>
-  <si>
-    <t>Polígonos de delimitación de áreas de tratamientos y de actuación urbanística.</t>
-  </si>
-  <si>
-    <t>Puntos de localización de acciones prioritarias sobre el territorio a ordenar.</t>
-  </si>
-  <si>
     <t>Red vial proyectada con conexión entre el área urbana y rural articulada a la red regional.</t>
-  </si>
-  <si>
-    <t>Polígonos de delimitación de zonas en alto riesgo para localización de asentamientos humanos por amenazas o riesgos naturales, o por condiciones de insalubridad.</t>
-  </si>
-  <si>
-    <t>Polígonos de delimitación de terrenos para vivienda de interés social y para reubicación de asentamientos localizados en zonas de alto riesgo.</t>
-  </si>
-  <si>
-    <t>Polígonos de delimitación de inmuebles y terrenos de desarrollo o construcción prioritaria.</t>
-  </si>
-  <si>
-    <t>Polígonos de delimitación de unidades de actuación urbanística</t>
-  </si>
-  <si>
-    <t>Polígonos de localización de macroproyectos urbanos.</t>
-  </si>
-  <si>
-    <t>Polígonos de predios objeto de plusvalía.</t>
-  </si>
-  <si>
-    <t>Polígonos de delimitación de planes parciales.</t>
-  </si>
-  <si>
-    <t>Polígonos de delimitación de las áreas de conservación y protección de los recursos naturales, paisajísticos, geográficos y ambientales, incluyendo las áreas de amenazas y riesgos, o que formen parte de los sistemas de provisión de los servicios públicos domiciliarios o de disposición final de desechos sólidos o líquidos</t>
-  </si>
-  <si>
-    <t>Polígonos de delimitación de los sistemas de aprovisionamiento de los servicios de agua potable y saneamiento básico de las zonas rurales</t>
-  </si>
-  <si>
-    <t>Polígonos de localización de predios rurales destinados a vivienda campestre.</t>
-  </si>
-  <si>
-    <t>Art. Acuerdo o Decreto POT</t>
   </si>
   <si>
     <r>
@@ -369,11 +312,6 @@
     <t>14, 33</t>
   </si>
   <si>
-    <t>2. El señalamiento de las condiciones de protección, conservación y mejoramiento de las zonas de producción agropecuaria, forestal o minera.
-Destinación explotación recursos naturales (opcional).
-Actividades análogas (opcional).</t>
-  </si>
-  <si>
     <t>8, 12, 16</t>
   </si>
   <si>
@@ -400,10 +338,6 @@
   <si>
     <t>2.2 El señalamiento de las áreas de reserva y medidas para la protección del medio ambiente, conservación de los recursos naturales y defensa del paisaje, de conformidad con lo dispuesto en la Ley 99 de 1993 y el Código de Recursos Naturales, así como de las áreas de conservación y protección del patrimonio histórico, cultural y arquitectónico.
 Identificar y caracterizar los ecosistemas de importancia ambiental del municipio, de común acuerdo con la autoridad ambiental de la respectiva jurisdicción, para su protección y manejo adecuados</t>
-  </si>
-  <si>
-    <t>Polígonos de delimitación de áreas de reserva, conservación de recursos naturales, defensa del paisaje, protección del patrimonio.
-Polígonos de Identificación y caracterización de los ecosistemas de importancia ambiental del municipio.</t>
   </si>
   <si>
     <t>2.4 La localización de actividades, infraestructuras y equipamientos básicos para garantizar adecuadas relaciones funcionales entre asentamientos y zonas urbanas y rurales.
@@ -414,9 +348,6 @@
 Identificar y localizar, cuando lo requieran las autoridades nacionales y previa concertación con ellas, los suelos para la infraestructura militar y policial estratégica básica para la atención de las necesidades de seguridad y de defensa nacional. (condicionado)</t>
   </si>
   <si>
-    <t>Puntos o polígonos de localización de actividades, infraestructuras y equipamientos básicos para garantizar adecuadas relaciones funcionales entre asentamientos y zonas urbanas y rurales, y para la disposición y tratamiento de residuos, terrenos en reserva para expansión de infraestructuras urbanas, terrenos y mejoras declarados como de utilidad pública o interés social, suelos para la infraestructura militar y policial estratégica básica (condicional).</t>
-  </si>
-  <si>
     <t>Revisión de componentes y acciones del plan de ordenamiento territorial y su implementación en acuerdos y/o decretos municipales o distritales.</t>
   </si>
   <si>
@@ -426,39 +357,973 @@
 EOT: División del territorio en suelo urbano y rural.</t>
   </si>
   <si>
-    <t>Sistema vial.
-Sistema de transporte.
-Red acueducto.
-Red alcantarillado.
-Red eléctrica.
+    <t>2. El señalamiento de las condiciones de protección, conservación y mejoramiento de las zonas de producción agropecuaria, forestal o minera.
+Destinación explotación recursos naturales (opcional).
+Actividades análogas (opcional).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. La expedición de normas urbanísticas en los términos y según los alcances que se establecen en el artículo 15 de la presente ley. 
+PBOT: La expedición de normas urbanísticas generales sobre usos e intensidad de usos del suelo, actuaciones, tratamientos y procedimientos de parcelación, urbanización, construcción e incorporación al desarrollo de las diferentes zonas comprendidas dentro del perímetro urbano y el suelo de expansión. Se incluirán especificaciones de cesiones urbanísticas, aislamientos, volumetrías y alturas; la determinación de las zonas de mejoramiento integral, si las hay, y las demás que consideren convenientes las autoridades distritales o municipales.
+EOT: normas urbanísticas requeridas para las actuaciones de parcelación, urbanización y construcción.
+Áreas morfológicas urbanas (numeral 8 del artículo 10 del Decreto Nacional 879 de 1998): zonas que tienen características análogas en cuanto a las tipologías de edificación, así como por los usos e índices derivados de su trama urbana original. </t>
+  </si>
+  <si>
+    <t>Localización de asentamientos humanos.</t>
+  </si>
+  <si>
+    <t>Delimitación zonas protección, conservación y mejoramiento de las zonas de producción agropecuaria, forestal o minera.</t>
+  </si>
+  <si>
+    <t>DR-13 Equipamientos colectivos rurales y elementos patrimoniales.</t>
+  </si>
+  <si>
+    <t>DR-12 Sistema vial rural.
+CR-03 Plan vial rural.</t>
+  </si>
+  <si>
+    <t>CG-01 Clasificación general del territorio.
+DR-01a Categorías de protección y desarrollo restringido en suelo rural.
+CG-03 Categorías de protección y desarrollo restringido en suelo rural.
+DU-13 Perímetro y división política urbana.
+DR-14 Clasificación general del territorio.
+DR-16 Límites y división política rural.
+CG-06 División política rural.
+CG-07 División política urbana.
+DR-17 Predios de propiedad del Municipio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DU-05 Sistema vial urbano existente.
+DU-06 Sistema vial urbano proyectado en POT vigente y plan de movilidad.
+CU-04 Plan vial en suelo urbano y de expansión urbana.
+DU-03 Sistema urbano de acueducto.
+DU-04 Sistema urbano de alcantarillado.
+DU-07 Sistemas urbanos de espacio público y equipamientos colectivos.
+CU-06 Plan de equipamientos comunitarios.
+CU-05 Plan de espacio público en suelo urbano y de expansión urbana.
+</t>
+  </si>
+  <si>
+    <t>CU-02 Tratamientos en suelo urbano y de expansión urbana.</t>
+  </si>
+  <si>
+    <t>CU-08 Localización de áreas para VIS y VIP.</t>
+  </si>
+  <si>
+    <t>DU-15 Usos por Planes Parciales y Especiales.
+CU-07 Plan parcial La Fraguita.</t>
+  </si>
+  <si>
+    <t>DU-08 Uso actual de suelo urbano.
+DU-09 Conflictos por uso del suelo urbano.
+DU-14 Conflictos POT vigente y expectativas ajuste.
+DU-11 Altura de edificaciones.
+DU-12 Unidades morfológicas homogéneas.
+CU-01 Áreas morfológicas homogéneas en suelo urbano y de expansión urbana.
+CU-03 Áreas de actividad en suelo urbano y de expansión urbana.</t>
+  </si>
+  <si>
+    <t>DR-15 Asentamientos humanos.
+CR-01 Áreas de actividad en suelo rural.</t>
+  </si>
+  <si>
+    <t>CR-01 Áreas de actividad en suelo rural.</t>
+  </si>
+  <si>
+    <t>CR-01 Áreas de actividad en suelo rural.
+DR-01a Categorías de protección y desarrollo restringido en suelo rural.
+CG-03 Categorías de protección y desarrollo restringido en suelo rural.
+DR-01b Áreas protegidas.
+DR-02 Estructura ecológica principal rural.
+DR-03 Hidrografía y delimitación de cuencas.
+DR-04 Mapa geomorfologico.
+DR-05 Mapa de suelos.
+DR-06 Mapa de pendientes.
+DR-07 Mapa de zonificación agroclimática.
+DR-08 Mapa de uso potenciales del suelo rural.
+DR-09 Mapa de cobertura y uso actual del suelo rural.
+DR-10 Mapa de conflictos de uso del suelo rural.
+DR-11 Mapa de Zonificación de amenazas naturales y antrópicas en suelo rural.</t>
+  </si>
+  <si>
+    <t>CR-01 Áreas de actividad en suelo rural.
+CR-02a Áreas de actividad en Centros Poblados Rurales.
+CR-02b Áreas de actividad en Centros Poblados Rurales.
+DR-13 Equipamientos colectivos rurales y elementos patrimoniales.
+DR-18 Uso actual del suelo en Centros Poblados Rurales (CPR).
+DR-19 Altura de edificaciones en Centros Poblados Rurales (CPR).</t>
+  </si>
+  <si>
+    <t>DU-02 Zonificación de amenazas naturales y atrópicas en suelo urbano.</t>
+  </si>
+  <si>
+    <t>Localización de acciones prioritarias sobre el territorio a ordenar.</t>
+  </si>
+  <si>
+    <t>DR-15 Asentamientos humanos.
+CG-02 Asentamientos humanos.
+DU-02 Zonificación de amenazas naturales y atrópicas en suelo urbano.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delimitación y clasificación del territorio: urbano, expansión urbana y rural.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delimitación perímetro de servicios públicos o sanitario (verificar que el área urbana no exceda este perímetro).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Límites y división política rural (veredas).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Predios de propiedad del Municipio.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Modelo de ocupación del territorio - MOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Delimitación de áreas de tratamientos y de actuación urbanística.</t>
+  </si>
+  <si>
+    <t>Delimitación de inmuebles y terrenos de desarrollo o construcción prioritaria.</t>
+  </si>
+  <si>
+    <t>Delimitación de planes parciales.
+Delimitación de uso del suelo en planes parciales.</t>
+  </si>
+  <si>
+    <t>Identificación de predios objeto de plusvalía.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delimitación de zonas suburbanas.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Polígonos usos del suelo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delimitación de centros poblados rurales.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Uso actual del suelo en Centros Poblados Rurales - CPR.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Altura de edificaciones en Centros Poblados Rurales - CPR.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Localización de equipamientos sociales.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sistema de espacio público en centros poblados y zonas suburbanas.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Polígonos usos del suelo.</t>
+    </r>
+  </si>
+  <si>
+    <t>Localización de predios rurales destinados a vivienda campestre.</t>
+  </si>
+  <si>
+    <t>CR-01 Áreas de actividad en suelo rural.
+CG-05 Modelo de ocupación del territorio.</t>
+  </si>
+  <si>
+    <t>DR-01a Categorías de protección y desarrollo restringido en suelo rural.
+CG-03 Categorías de protección y desarrollo restringido en suelo rural.
+CG-04 Estructura ecológica principal urbana.
+CG-08 Estructura ecológica principal rural.
+DR-13 Equipamientos colectivos rurales y elementos patrimoniales.
+CU-02 Tratamientos en suelo urbano y de expansión urbana.
+DR-04 Geomorfología.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delimitación de áreas de reserva, conservación de recursos naturales, defensa del paisaje (geomorfología), protección del patrimonio urbano (tratamiento de conservación urbanística) y patromonio rural.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Identificación y caracterización de los ecosistemas de importancia ambiental del municipio.</t>
+    </r>
+  </si>
+  <si>
+    <t>Delimitación de zonas en alto riesgo para localización de asentamientos humanos por amenazas o riesgos naturales, o por condiciones de insalubridad.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Plan vial.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Sistema de transporte y movilidad.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Sistema de acueducto.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Sistema de alcantarillado.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Rutas de aseo.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Red energía eléctrica.
 Red gas natural.
-Redes de comunicación.
-Puntos y/o polígonos de localización o delimitación de equipamientos.
-Sistema de espacio público (parques y zonas verdes públicas).</t>
-  </si>
-  <si>
-    <t>Polígonos de clasificación del territorio: urbano, expansión urbana y rural.
-Polígono perímetro de servicios públicos o sanitario (verificar que el área urbana no exceda este perímetro).</t>
-  </si>
-  <si>
-    <t>Polígonos de delimitación de zonas suburbanas.
-Polígonos usos del suelo.</t>
-  </si>
-  <si>
-    <t>Polígonos de delimitación de centros poblados rurales.
-Puntos de localización de equipamientos sociales.
-Sistema de espacio público en centros poblados y zonas suburbanas.
-Polígonos usos del suelo.</t>
-  </si>
-  <si>
-    <t>Polígonos usos del suelo urbano.</t>
+Redes de telecomunicaciones.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Localización o delimitación de equipamientos.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sistema de espacio público (parques y zonas verdes públicas).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Sistemas de acueductos veredales.
+Sistemas de alcantarillado rural.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Localización prevista para los equipamientos de salud y educación.</t>
+    </r>
+  </si>
+  <si>
+    <t>CU-03 Áreas de actividad en suelo urbano y de expansión urbana (incluye las rondas hídricas).
+DU-02 Zonificación de amenazas naturales y atrópicas en suelo urbano.
+DU-10 Ocupación en áreas de ronda.
+DU-01 Estructura ecológica principal urbana.
+DU-13 Perímetro y división política urbana.
+CU-02 Tratamientos en suelo urbano y de expansión urbana.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delimitación urbana de las áreas de conservación y protección de los recursos naturales (rondas hídricas), paisajísticos y de conjuntos urbanos, históricos y culturales (tratamieno de conservación).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delimitación urbana de áreas expuestas a amenazas y riesgos naturales.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delimitación de la estructura ecológica principal.
+Perímetro y división política urbana (barrios, comunas)</t>
+    </r>
+  </si>
+  <si>
+    <t>CU-08 Localización de áreas para VIS y VIP.
+DR-15 Asentamientos humanos.
+DU-02 Zonificación de amenazas naturales y atrópicas en suelo urbano.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delimitación de terrenos para vivienda de interés social y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> terrenos para reubicación de asentamientos localizados en zonas de alto riesgo.</t>
+    </r>
+  </si>
+  <si>
+    <t>Localización de macroproyectos urbanos (opcional).</t>
+  </si>
+  <si>
+    <t>Localización de unidades de actuación urbanística (condicionado al desarrollo de planes parciales)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Polígonos usos actuales del suelo urbano.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Polígonos conflictos usos suelo urbano.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Polígonos usos proyectados del suelo urbano.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Polígonos altura en edificaciones.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delimitación de áreas y unidades morfológicas.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delimitación de áreas de actividad.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delimitación de las áreas de conservación y protección de los recursos naturales, paisajísticos (geomorfología), geográficos (o geomorfológicos)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>y ambientales, incluyendo las áreas de amenazas y riesgos, o que formen parte de los sistemas de provisión de los servicios públicos domiciliarios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">o de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>disposición final de desechos sólidos o líquidos.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delimitación de la estructura ecológica principal.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hidrografía y delimitación de cuencas.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Mapa geomorfologico.
+Mapa de suelos.
+Mapa de pendientes.
+Mapa de zonificación agroclimática.
+Mapa de uso potenciales del suelo rural.
+Mapa de cobertura y uso actual del suelo rural.
+Mapa de conflictos de uso del suelo rural.
+Mapa de zonificación de amenazas naturales y antrópicas en suelo rural.
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">DR-13 Equipamientos colectivos rurales y elementos patrimoniales.
+DU-07 Sistemas urbanos de espacio público y equipamientos colectivos.
+CU-03 Áreas de actividad en suelo urbano y de expansión urbana.
+CR-01 Áreas de actividad en suelo rural.
+CR-02a Áreas de actividad en Centros Poblados Rurales.
+CR-02b Áreas de actividad en Centros Poblados Rurales.
+DR-01a Categorías de protección y desarrollo restringido en suelo rural.
+DR-01b Áreas protegidas.
+CG-05 Modelo de ocupación del territorio.
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Localización de actividades, infraestructuras y equipamientos básicos para garantizar adecuadas relaciones funcionales entre asentamientos y zonas urbanas y rurales.
+Localización de infraestructura para la disposición y tratamiento de residuos (p. ej., zonas libres PTAR).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Localización de terrenos en reserva para expansión de infraestructuras urbanas, terrenos y mejoras declarados como de utilidad pública o interés social.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Localización de suelos para la infraestructura militar y policial estratégica básica (condicionado).</t>
+    </r>
+  </si>
+  <si>
+    <t>Acción o alcance</t>
+  </si>
+  <si>
+    <t>Mapa POT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,6 +1382,23 @@
       <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1044,7 +1926,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1264,6 +2146,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1567,12 +2470,12 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="50" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="57" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C3" s="58"/>
       <c r="D3" s="58"/>
@@ -1581,7 +2484,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="42" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C4" s="51">
         <v>29999</v>
@@ -1590,10 +2493,10 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="53" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C5" s="54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="55"/>
       <c r="E5" s="55"/>
@@ -1601,27 +2504,27 @@
     </row>
     <row r="6" spans="2:6" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="13" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="8">
         <v>100000</v>
@@ -1634,10 +2537,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="8">
         <v>30000</v>
@@ -1650,10 +2553,10 @@
     </row>
     <row r="9" spans="2:6" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B9" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -1689,38 +2592,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AB5CB8-4A61-4A7E-8EB6-2F4C47C44909}">
   <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I24" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.69140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.61328125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="51.15234375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="7.07421875" style="5" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="5.921875" style="43" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="0.3828125" style="43" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="3.23046875" style="43" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="23.765625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14.61328125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="15.4609375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="10.3828125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="21.23046875" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9.23046875" style="5"/>
+    <col min="2" max="2" width="17.921875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="42.07421875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="7.07421875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.53515625" style="43" customWidth="1"/>
+    <col min="6" max="6" width="5.23046875" style="43" customWidth="1"/>
+    <col min="7" max="7" width="7.53515625" style="43" customWidth="1"/>
+    <col min="8" max="9" width="41.15234375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.69140625" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.23046875" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B3" s="66" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="67"/>
@@ -1728,57 +2627,49 @@
       <c r="F3" s="68"/>
       <c r="G3" s="70"/>
       <c r="H3" s="67" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="69"/>
-    </row>
-    <row r="4" spans="2:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="J3" s="69"/>
+    </row>
+    <row r="4" spans="2:10" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B4" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="2:10" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B5" s="41" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" s="45">
         <v>1</v>
@@ -1791,19 +2682,17 @@
       </c>
       <c r="H5" s="38"/>
       <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="40"/>
-    </row>
-    <row r="6" spans="2:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="J5" s="40"/>
+    </row>
+    <row r="6" spans="2:10" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B6" s="71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="46">
         <v>1</v>
@@ -1814,20 +2703,20 @@
       <c r="G6" s="62">
         <v>0</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="2:12" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="H6" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="2:10" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B7" s="71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="19">
         <v>12</v>
@@ -1843,16 +2732,14 @@
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="2:12" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="2:10" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B8" s="71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D8" s="19">
         <v>12</v>
@@ -1868,19 +2755,17 @@
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="2:12" ht="102" x14ac:dyDescent="0.4">
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:10" ht="116.6" x14ac:dyDescent="0.4">
       <c r="B9" s="71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E9" s="46">
         <v>1</v>
@@ -1893,19 +2778,17 @@
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="2:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="2:10" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B10" s="71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="46">
         <v>1</v>
@@ -1916,23 +2799,23 @@
       <c r="G10" s="62">
         <v>0</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="2:12" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="H10" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10" ht="247.75" x14ac:dyDescent="0.4">
       <c r="B11" s="71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E11" s="46">
         <v>1</v>
@@ -1944,22 +2827,22 @@
         <v>0</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="2:12" ht="87.45" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="2:10" ht="102" x14ac:dyDescent="0.4">
       <c r="B12" s="71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E12" s="46">
         <v>1</v>
@@ -1970,23 +2853,23 @@
       <c r="G12" s="62">
         <v>0</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="2:12" ht="349.75" x14ac:dyDescent="0.4">
+      <c r="H12" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" ht="408" x14ac:dyDescent="0.4">
       <c r="B13" s="71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E13" s="46">
         <v>1</v>
@@ -1998,22 +2881,22 @@
         <v>0</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="2:12" ht="306" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:10" ht="349.75" x14ac:dyDescent="0.4">
       <c r="B14" s="71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E14" s="46">
         <v>1</v>
@@ -2025,14 +2908,14 @@
         <v>1</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="72"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
@@ -2041,19 +2924,17 @@
       <c r="G15" s="63"/>
       <c r="H15" s="26"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="2:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" ht="102" x14ac:dyDescent="0.4">
       <c r="B16" s="41" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E16" s="48">
         <v>1</v>
@@ -2066,19 +2947,17 @@
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="37"/>
-    </row>
-    <row r="17" spans="2:12" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="J16" s="37"/>
+    </row>
+    <row r="17" spans="2:10" ht="291.45" x14ac:dyDescent="0.4">
       <c r="B17" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>86</v>
+        <v>12</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>68</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E17" s="46">
         <v>1</v>
@@ -2090,22 +2969,22 @@
         <v>1</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
-    </row>
-    <row r="18" spans="2:12" ht="145.75" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+      <c r="I17" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="2:10" ht="204" x14ac:dyDescent="0.4">
       <c r="B18" s="71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="E18" s="46">
         <v>1</v>
@@ -2116,20 +2995,20 @@
       <c r="G18" s="65">
         <v>1</v>
       </c>
-      <c r="H18" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="30"/>
-    </row>
-    <row r="19" spans="2:12" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="H18" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="2:10" ht="43.75" x14ac:dyDescent="0.4">
       <c r="B19" s="71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="28">
         <v>13</v>
@@ -2143,23 +3022,23 @@
       <c r="G19" s="65">
         <v>0</v>
       </c>
-      <c r="H19" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="30"/>
-    </row>
-    <row r="20" spans="2:12" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="H19" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="2:10" ht="189.45" x14ac:dyDescent="0.4">
       <c r="B20" s="71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E20" s="46">
         <v>1</v>
@@ -2170,23 +3049,23 @@
       <c r="G20" s="65">
         <v>0</v>
       </c>
-      <c r="H20" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="30"/>
-    </row>
-    <row r="21" spans="2:12" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="H20" s="76" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="2:10" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="B21" s="71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E21" s="46">
         <v>1</v>
@@ -2197,23 +3076,23 @@
       <c r="G21" s="65">
         <v>0</v>
       </c>
-      <c r="H21" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="30"/>
-    </row>
-    <row r="22" spans="2:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="H21" s="78" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="30"/>
+    </row>
+    <row r="22" spans="2:10" ht="87.45" x14ac:dyDescent="0.4">
       <c r="B22" s="71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="E22" s="46">
         <v>1</v>
@@ -2224,23 +3103,21 @@
       <c r="G22" s="65">
         <v>0</v>
       </c>
-      <c r="H22" s="19" t="s">
-        <v>62</v>
+      <c r="H22" s="76" t="s">
+        <v>120</v>
       </c>
       <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="30"/>
-    </row>
-    <row r="23" spans="2:12" ht="174.9" x14ac:dyDescent="0.4">
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" spans="2:10" ht="218.6" x14ac:dyDescent="0.4">
       <c r="B23" s="71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E23" s="46">
         <v>1</v>
@@ -2251,23 +3128,21 @@
       <c r="G23" s="65">
         <v>0</v>
       </c>
-      <c r="H23" s="28" t="s">
-        <v>63</v>
+      <c r="H23" s="77" t="s">
+        <v>119</v>
       </c>
       <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="30"/>
-    </row>
-    <row r="24" spans="2:12" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="J23" s="30"/>
+    </row>
+    <row r="24" spans="2:10" ht="87.45" x14ac:dyDescent="0.4">
       <c r="B24" s="71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E24" s="46">
         <v>1</v>
@@ -2278,23 +3153,23 @@
       <c r="G24" s="65">
         <v>0</v>
       </c>
-      <c r="H24" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="30"/>
-    </row>
-    <row r="25" spans="2:12" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="H24" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="30"/>
+    </row>
+    <row r="25" spans="2:10" ht="160.30000000000001" x14ac:dyDescent="0.4">
       <c r="B25" s="71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E25" s="46">
         <v>1</v>
@@ -2305,23 +3180,21 @@
       <c r="G25" s="65">
         <v>0</v>
       </c>
-      <c r="H25" s="28" t="s">
-        <v>64</v>
+      <c r="H25" s="77" t="s">
+        <v>105</v>
       </c>
       <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="30"/>
-    </row>
-    <row r="26" spans="2:12" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="J25" s="30"/>
+    </row>
+    <row r="26" spans="2:10" ht="364.3" x14ac:dyDescent="0.4">
       <c r="B26" s="71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E26" s="46">
         <v>1</v>
@@ -2332,15 +3205,15 @@
       <c r="G26" s="65">
         <v>1</v>
       </c>
-      <c r="H26" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="30"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H26" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" s="30"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="73"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
@@ -2349,19 +3222,17 @@
       <c r="G27" s="65"/>
       <c r="H27" s="28"/>
       <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="30"/>
-    </row>
-    <row r="28" spans="2:12" ht="204" x14ac:dyDescent="0.4">
+      <c r="J27" s="30"/>
+    </row>
+    <row r="28" spans="2:10" ht="145.75" x14ac:dyDescent="0.4">
       <c r="B28" s="41" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E28" s="45">
         <v>1</v>
@@ -2372,21 +3243,23 @@
       <c r="G28" s="61">
         <v>1</v>
       </c>
-      <c r="H28" s="38"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="40"/>
-    </row>
-    <row r="29" spans="2:12" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="H28" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="J28" s="40"/>
+    </row>
+    <row r="29" spans="2:10" ht="102" x14ac:dyDescent="0.4">
       <c r="B29" s="71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E29" s="49">
         <v>1</v>
@@ -2397,21 +3270,23 @@
       <c r="G29" s="65">
         <v>0</v>
       </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="30"/>
-    </row>
-    <row r="30" spans="2:12" ht="174.9" x14ac:dyDescent="0.4">
+      <c r="H29" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" s="30"/>
+    </row>
+    <row r="30" spans="2:10" ht="409.6" x14ac:dyDescent="0.4">
       <c r="B30" s="71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E30" s="49">
         <v>1</v>
@@ -2423,19 +3298,19 @@
         <v>1</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="30"/>
-    </row>
-    <row r="31" spans="2:12" ht="102" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" s="30"/>
+    </row>
+    <row r="31" spans="2:10" ht="131.15" x14ac:dyDescent="0.4">
       <c r="B31" s="71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D31" s="28">
         <v>14</v>
@@ -2450,22 +3325,22 @@
         <v>0</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="30"/>
-    </row>
-    <row r="32" spans="2:12" ht="160.30000000000001" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+      <c r="I31" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="J31" s="30"/>
+    </row>
+    <row r="32" spans="2:10" ht="233.15" x14ac:dyDescent="0.4">
       <c r="B32" s="71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E32" s="49">
         <v>1</v>
@@ -2477,19 +3352,19 @@
         <v>0</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="30"/>
-    </row>
-    <row r="33" spans="2:12" ht="87.45" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+      <c r="I32" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="J32" s="30"/>
+    </row>
+    <row r="33" spans="2:10" ht="87.45" x14ac:dyDescent="0.4">
       <c r="B33" s="71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D33" s="28">
         <v>14</v>
@@ -2504,22 +3379,22 @@
         <v>0</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="30"/>
-    </row>
-    <row r="34" spans="2:12" ht="43.75" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+      <c r="I33" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" s="30"/>
+    </row>
+    <row r="34" spans="2:10" ht="58.3" x14ac:dyDescent="0.4">
       <c r="B34" s="71" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E34" s="49">
         <v>1</v>
@@ -2530,15 +3405,15 @@
       <c r="G34" s="65">
         <v>1</v>
       </c>
-      <c r="H34" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="30"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="H34" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="J34" s="30"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="72"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
@@ -2547,12 +3422,10 @@
       <c r="G35" s="63"/>
       <c r="H35" s="26"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="4"/>
+      <c r="J35" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:L35" xr:uid="{36AB5CB8-4A61-4A7E-8EB6-2F4C47C44909}"/>
+  <autoFilter ref="B4:J35" xr:uid="{36AB5CB8-4A61-4A7E-8EB6-2F4C47C44909}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
@@ -2602,31 +3475,31 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B5" s="23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/activity/POTStudyZone/POTStudyZone.xlsx
+++ b/activity/POTStudyZone/POTStudyZone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\POTStudyZone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA09ED7-A806-4FF9-AEDD-476FA11150D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577F0223-8C9C-45EB-9A14-E758B8DF75D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -287,9 +287,6 @@
     <t>Componente normativo</t>
   </si>
   <si>
-    <t>Alcance en SIG</t>
-  </si>
-  <si>
     <t>Revisión de alcance e implementación municipal</t>
   </si>
   <si>
@@ -943,56 +940,6 @@
 CU-02 Tratamientos en suelo urbano y de expansión urbana.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Delimitación urbana de las áreas de conservación y protección de los recursos naturales (rondas hídricas), paisajísticos y de conjuntos urbanos, históricos y culturales (tratamieno de conservación).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Delimitación urbana de áreas expuestas a amenazas y riesgos naturales.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Delimitación de la estructura ecológica principal.
-Perímetro y división política urbana (barrios, comunas)</t>
-    </r>
-  </si>
-  <si>
     <t>CU-08 Localización de áreas para VIS y VIP.
 DR-15 Asentamientos humanos.
 DU-02 Zonificación de amenazas naturales y atrópicas en suelo urbano.</t>
@@ -1316,7 +1263,69 @@
     <t>Acción o alcance</t>
   </si>
   <si>
-    <t>Mapa POT</t>
+    <t>Mapa POT municipal</t>
+  </si>
+  <si>
+    <t>Alcance SIG</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delimitación urbana de las áreas de conservación y protección de los recursos naturales (rondas hídricas), paisajísticos y de conjuntos urbanos, históricos y culturales (tratamieno de conservación).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delimitación urbana de áreas expuestas a amenazas y riesgos naturales.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delimitación de la estructura ecológica principal.
+Perímetro y división política urbana (barrios, comunas)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2592,10 +2601,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AB5CB8-4A61-4A7E-8EB6-2F4C47C44909}">
   <dimension ref="B2:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H2" sqref="H2"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -2614,7 +2623,7 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
@@ -2627,7 +2636,7 @@
       <c r="F3" s="68"/>
       <c r="G3" s="70"/>
       <c r="H3" s="67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I3" s="67"/>
       <c r="J3" s="69"/>
@@ -2637,7 +2646,7 @@
         <v>43</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>22</v>
@@ -2652,10 +2661,10 @@
         <v>31</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J4" s="34" t="s">
         <v>0</v>
@@ -2704,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J6" s="2"/>
     </row>
@@ -2765,7 +2774,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="46">
         <v>1</v>
@@ -2803,7 +2812,7 @@
         <v>51</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J10" s="2"/>
     </row>
@@ -2812,10 +2821,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="46">
         <v>1</v>
@@ -2827,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J11" s="2"/>
     </row>
@@ -2842,7 +2851,7 @@
         <v>49</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="46">
         <v>1</v>
@@ -2854,10 +2863,10 @@
         <v>0</v>
       </c>
       <c r="H12" s="78" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J12" s="2"/>
     </row>
@@ -2866,10 +2875,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="46">
         <v>1</v>
@@ -2881,10 +2890,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -2893,10 +2902,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="46">
         <v>1</v>
@@ -2908,10 +2917,10 @@
         <v>1</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J14" s="2"/>
     </row>
@@ -2934,7 +2943,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="48">
         <v>1</v>
@@ -2954,10 +2963,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E17" s="46">
         <v>1</v>
@@ -2969,10 +2978,10 @@
         <v>1</v>
       </c>
       <c r="H17" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I17" s="75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J17" s="30"/>
     </row>
@@ -2984,7 +2993,7 @@
         <v>48</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="46">
         <v>1</v>
@@ -2996,10 +3005,10 @@
         <v>1</v>
       </c>
       <c r="H18" s="76" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J18" s="30"/>
     </row>
@@ -3023,10 +3032,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J19" s="30"/>
     </row>
@@ -3035,10 +3044,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="46">
         <v>1</v>
@@ -3050,10 +3059,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="76" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I20" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J20" s="30"/>
     </row>
@@ -3065,7 +3074,7 @@
         <v>34</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E21" s="46">
         <v>1</v>
@@ -3077,10 +3086,10 @@
         <v>0</v>
       </c>
       <c r="H21" s="78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I21" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J21" s="30"/>
     </row>
@@ -3092,7 +3101,7 @@
         <v>35</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" s="46">
         <v>1</v>
@@ -3104,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="76" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I22" s="29"/>
       <c r="J22" s="30"/>
@@ -3129,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="77" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I23" s="29"/>
       <c r="J23" s="30"/>
@@ -3142,7 +3151,7 @@
         <v>36</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="46">
         <v>1</v>
@@ -3154,10 +3163,10 @@
         <v>0</v>
       </c>
       <c r="H24" s="78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I24" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J24" s="30"/>
     </row>
@@ -3181,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="77" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I25" s="29"/>
       <c r="J25" s="30"/>
@@ -3191,7 +3200,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>46</v>
@@ -3206,10 +3215,10 @@
         <v>1</v>
       </c>
       <c r="H26" s="77" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J26" s="30"/>
     </row>
@@ -3244,10 +3253,10 @@
         <v>1</v>
       </c>
       <c r="H28" s="79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I28" s="39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J28" s="40"/>
     </row>
@@ -3256,10 +3265,10 @@
         <v>13</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" s="49">
         <v>1</v>
@@ -3271,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I29" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J29" s="30"/>
     </row>
@@ -3286,7 +3295,7 @@
         <v>50</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" s="49">
         <v>1</v>
@@ -3298,10 +3307,10 @@
         <v>1</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J30" s="30"/>
     </row>
@@ -3325,10 +3334,10 @@
         <v>0</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J31" s="30"/>
     </row>
@@ -3340,7 +3349,7 @@
         <v>40</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" s="49">
         <v>1</v>
@@ -3352,10 +3361,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J32" s="30"/>
     </row>
@@ -3379,10 +3388,10 @@
         <v>0</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J33" s="30"/>
     </row>
@@ -3406,10 +3415,10 @@
         <v>1</v>
       </c>
       <c r="H34" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="I34" s="29" t="s">
         <v>108</v>
-      </c>
-      <c r="I34" s="29" t="s">
-        <v>109</v>
       </c>
       <c r="J34" s="30"/>
     </row>

--- a/activity/POTStudyZone/POTStudyZone.xlsx
+++ b/activity/POTStudyZone/POTStudyZone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\POTStudyZone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577F0223-8C9C-45EB-9A14-E758B8DF75D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A19C6C9-EF21-4357-957D-CC10180B61B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Setup" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ComponenteAccion!$B$4:$J$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ComponenteAccion!$B$4:$J$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="129">
   <si>
     <t>Observaciones</t>
   </si>
@@ -387,17 +387,6 @@
 CG-06 División política rural.
 CG-07 División política urbana.
 DR-17 Predios de propiedad del Municipio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DU-05 Sistema vial urbano existente.
-DU-06 Sistema vial urbano proyectado en POT vigente y plan de movilidad.
-CU-04 Plan vial en suelo urbano y de expansión urbana.
-DU-03 Sistema urbano de acueducto.
-DU-04 Sistema urbano de alcantarillado.
-DU-07 Sistemas urbanos de espacio público y equipamientos colectivos.
-CU-06 Plan de equipamientos comunitarios.
-CU-05 Plan de espacio público en suelo urbano y de expansión urbana.
-</t>
   </si>
   <si>
     <t>CU-02 Tratamientos en suelo urbano y de expansión urbana.</t>
@@ -1327,12 +1316,28 @@
       <t>.</t>
     </r>
   </si>
+  <si>
+    <t>DU-05 Sistema vial urbano existente.
+DU-06 Sistema vial urbano proyectado en POT vigente y plan de movilidad.
+CU-04 Plan vial en suelo urbano y de expansión urbana.
+DU-03 Sistema urbano de acueducto.
+DU-04 Sistema urbano de alcantarillado.
+DU-07 Sistemas urbanos de espacio público y equipamientos colectivos.
+CU-06 Plan de equipamientos comunitarios.
+CU-05 Plan de espacio público en suelo urbano y de expansión urbana.</t>
+  </si>
+  <si>
+    <t>✕</t>
+  </si>
+  <si>
+    <t>✓</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1408,6 +1413,20 @@
       <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1935,7 +1954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2015,9 +2034,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2069,21 +2085,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2117,21 +2118,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2150,12 +2136,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2176,6 +2156,57 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2478,38 +2509,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="44" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="45">
         <v>29999</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="2:6" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
@@ -2599,12 +2630,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AB5CB8-4A61-4A7E-8EB6-2F4C47C44909}">
-  <dimension ref="B2:L35"/>
+  <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H2" sqref="H2"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -2613,161 +2644,161 @@
     <col min="2" max="2" width="17.921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="42.07421875" style="5" customWidth="1"/>
     <col min="4" max="4" width="7.07421875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.53515625" style="43" customWidth="1"/>
-    <col min="6" max="6" width="5.23046875" style="43" customWidth="1"/>
-    <col min="7" max="7" width="7.53515625" style="43" customWidth="1"/>
+    <col min="5" max="5" width="8.53515625" style="42" customWidth="1"/>
+    <col min="6" max="6" width="5.23046875" style="42" customWidth="1"/>
+    <col min="7" max="7" width="7.53515625" style="42" customWidth="1"/>
     <col min="8" max="9" width="41.15234375" style="5" customWidth="1"/>
     <col min="10" max="10" width="16.69140625" style="5" customWidth="1"/>
     <col min="11" max="16384" width="9.23046875" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="44" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="67" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="69"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="2:10" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="33" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="B5" s="41" t="s">
+    <row r="5" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="45">
-        <v>1</v>
-      </c>
-      <c r="F5" s="45">
-        <v>1</v>
-      </c>
-      <c r="G5" s="61">
-        <v>1</v>
-      </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="40"/>
-    </row>
-    <row r="6" spans="2:10" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="B6" s="71" t="s">
+      <c r="E5" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="37"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="39"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="46">
-        <v>1</v>
-      </c>
-      <c r="F6" s="46">
-        <v>1</v>
-      </c>
-      <c r="G6" s="62">
-        <v>0</v>
-      </c>
-      <c r="H6" s="78" t="s">
-        <v>98</v>
+      <c r="E6" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="65" t="s">
+        <v>97</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="B7" s="71" t="s">
+    <row r="7" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="19">
         <v>12</v>
       </c>
-      <c r="E7" s="46">
-        <v>1</v>
-      </c>
-      <c r="F7" s="46">
-        <v>0</v>
-      </c>
-      <c r="G7" s="62">
-        <v>0</v>
+      <c r="E7" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>127</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="1"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="B8" s="71" t="s">
+    <row r="8" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="19">
         <v>12</v>
       </c>
-      <c r="E8" s="46">
-        <v>1</v>
-      </c>
-      <c r="F8" s="46">
-        <v>0</v>
-      </c>
-      <c r="G8" s="62">
-        <v>0</v>
+      <c r="E8" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>127</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="1"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10" ht="116.6" x14ac:dyDescent="0.4">
-      <c r="B9" s="71" t="s">
+    <row r="9" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="60" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -2776,39 +2807,39 @@
       <c r="D9" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="46">
-        <v>1</v>
-      </c>
-      <c r="F9" s="46">
-        <v>1</v>
-      </c>
-      <c r="G9" s="62">
-        <v>0</v>
+      <c r="E9" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>127</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="B10" s="71" t="s">
+    <row r="10" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="19" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="46">
-        <v>1</v>
-      </c>
-      <c r="F10" s="46">
-        <v>1</v>
-      </c>
-      <c r="G10" s="62">
-        <v>0</v>
-      </c>
-      <c r="H10" s="78" t="s">
+      <c r="E10" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="65" t="s">
         <v>51</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -2816,632 +2847,599 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10" ht="247.75" x14ac:dyDescent="0.4">
-      <c r="B11" s="71" t="s">
+    <row r="11" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="19" t="s">
         <v>77</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="46">
-        <v>1</v>
-      </c>
-      <c r="F11" s="46">
-        <v>1</v>
-      </c>
-      <c r="G11" s="62">
-        <v>0</v>
+      <c r="E11" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="70" t="s">
+        <v>127</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10" ht="102" x14ac:dyDescent="0.4">
-      <c r="B12" s="71" t="s">
+    <row r="12" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="19" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="46">
-        <v>1</v>
-      </c>
-      <c r="F12" s="46">
-        <v>1</v>
-      </c>
-      <c r="G12" s="62">
-        <v>0</v>
-      </c>
-      <c r="H12" s="78" t="s">
-        <v>111</v>
+      <c r="E12" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="65" t="s">
+        <v>110</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10" ht="408" x14ac:dyDescent="0.4">
-      <c r="B13" s="71" t="s">
+    <row r="13" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="19" t="s">
         <v>78</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="46">
-        <v>1</v>
-      </c>
-      <c r="F13" s="46">
-        <v>1</v>
-      </c>
-      <c r="G13" s="62">
-        <v>0</v>
+      <c r="E13" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="70" t="s">
+        <v>127</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10" ht="349.75" x14ac:dyDescent="0.4">
-      <c r="B14" s="71" t="s">
+    <row r="14" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="19" t="s">
         <v>80</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="46">
-        <v>1</v>
-      </c>
-      <c r="F14" s="46">
-        <v>1</v>
-      </c>
-      <c r="G14" s="62">
-        <v>1</v>
+      <c r="E14" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" s="84" t="s">
+        <v>128</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>87</v>
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="72"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="2:10" ht="102" x14ac:dyDescent="0.4">
-      <c r="B16" s="41" t="s">
+    <row r="15" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="48">
-        <v>1</v>
-      </c>
-      <c r="F16" s="48">
-        <v>0</v>
-      </c>
-      <c r="G16" s="64">
-        <v>0</v>
-      </c>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="37"/>
-    </row>
-    <row r="17" spans="2:10" ht="291.45" x14ac:dyDescent="0.4">
-      <c r="B17" s="71" t="s">
+      <c r="E15" s="83" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C16" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="46">
-        <v>1</v>
-      </c>
-      <c r="F17" s="49">
-        <v>1</v>
-      </c>
-      <c r="G17" s="65">
-        <v>1</v>
-      </c>
-      <c r="H17" s="28" t="s">
+      <c r="E16" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="27">
+        <v>13</v>
+      </c>
+      <c r="E18" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="H19" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="29"/>
+    </row>
+    <row r="21" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="H21" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" s="29"/>
+    </row>
+    <row r="26" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" s="39"/>
+    </row>
+    <row r="27" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="J27" s="29"/>
+    </row>
+    <row r="28" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="G28" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J28" s="29"/>
+    </row>
+    <row r="29" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="27">
+        <v>14</v>
+      </c>
+      <c r="E29" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" s="29"/>
+    </row>
+    <row r="30" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" s="29"/>
+    </row>
+    <row r="31" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="27">
+        <v>14</v>
+      </c>
+      <c r="E31" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="I17" s="75" t="s">
-        <v>88</v>
-      </c>
-      <c r="J17" s="30"/>
-    </row>
-    <row r="18" spans="2:10" ht="204" x14ac:dyDescent="0.4">
-      <c r="B18" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="46">
-        <v>1</v>
-      </c>
-      <c r="F18" s="49">
-        <v>1</v>
-      </c>
-      <c r="G18" s="65">
-        <v>1</v>
-      </c>
-      <c r="H18" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="J18" s="30"/>
-    </row>
-    <row r="19" spans="2:10" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="B19" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="28">
+      <c r="I31" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" s="29"/>
+    </row>
+    <row r="32" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="46">
-        <v>1</v>
-      </c>
-      <c r="F19" s="49">
-        <v>0</v>
-      </c>
-      <c r="G19" s="65">
-        <v>0</v>
-      </c>
-      <c r="H19" s="78" t="s">
-        <v>101</v>
-      </c>
-      <c r="I19" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="30"/>
-    </row>
-    <row r="20" spans="2:10" ht="189.45" x14ac:dyDescent="0.4">
-      <c r="B20" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="46">
-        <v>1</v>
-      </c>
-      <c r="F20" s="49">
-        <v>1</v>
-      </c>
-      <c r="G20" s="65">
-        <v>0</v>
-      </c>
-      <c r="H20" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="I20" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="J20" s="30"/>
-    </row>
-    <row r="21" spans="2:10" ht="72.900000000000006" x14ac:dyDescent="0.4">
-      <c r="B21" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="46">
-        <v>1</v>
-      </c>
-      <c r="F21" s="49">
-        <v>0</v>
-      </c>
-      <c r="G21" s="65">
-        <v>0</v>
-      </c>
-      <c r="H21" s="78" t="s">
-        <v>102</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="J21" s="30"/>
-    </row>
-    <row r="22" spans="2:10" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="B22" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="46">
-        <v>1</v>
-      </c>
-      <c r="F22" s="49">
-        <v>0</v>
-      </c>
-      <c r="G22" s="65">
-        <v>0</v>
-      </c>
-      <c r="H22" s="76" t="s">
-        <v>118</v>
-      </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
-    </row>
-    <row r="23" spans="2:10" ht="218.6" x14ac:dyDescent="0.4">
-      <c r="B23" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="46">
-        <v>1</v>
-      </c>
-      <c r="F23" s="49">
-        <v>0</v>
-      </c>
-      <c r="G23" s="65">
-        <v>0</v>
-      </c>
-      <c r="H23" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="30"/>
-    </row>
-    <row r="24" spans="2:10" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="B24" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="46">
-        <v>1</v>
-      </c>
-      <c r="F24" s="49">
-        <v>0</v>
-      </c>
-      <c r="G24" s="65">
-        <v>0</v>
-      </c>
-      <c r="H24" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="I24" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="J24" s="30"/>
-    </row>
-    <row r="25" spans="2:10" ht="160.30000000000001" x14ac:dyDescent="0.4">
-      <c r="B25" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="46">
-        <v>1</v>
-      </c>
-      <c r="F25" s="49">
-        <v>1</v>
-      </c>
-      <c r="G25" s="65">
-        <v>0</v>
-      </c>
-      <c r="H25" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="30"/>
-    </row>
-    <row r="26" spans="2:10" ht="364.3" x14ac:dyDescent="0.4">
-      <c r="B26" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="46">
-        <v>1</v>
-      </c>
-      <c r="F26" s="49">
-        <v>1</v>
-      </c>
-      <c r="G26" s="65">
-        <v>1</v>
-      </c>
-      <c r="H26" s="77" t="s">
-        <v>119</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="J26" s="30"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B27" s="73"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="30"/>
-    </row>
-    <row r="28" spans="2:10" ht="145.75" x14ac:dyDescent="0.4">
-      <c r="B28" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="38" t="s">
+      <c r="C32" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="45">
-        <v>1</v>
-      </c>
-      <c r="F28" s="45">
-        <v>1</v>
-      </c>
-      <c r="G28" s="61">
-        <v>1</v>
-      </c>
-      <c r="H28" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="I28" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="J28" s="40"/>
-    </row>
-    <row r="29" spans="2:10" ht="102" x14ac:dyDescent="0.4">
-      <c r="B29" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="49">
-        <v>1</v>
-      </c>
-      <c r="F29" s="49">
-        <v>1</v>
-      </c>
-      <c r="G29" s="65">
-        <v>0</v>
-      </c>
-      <c r="H29" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="I29" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="J29" s="30"/>
-    </row>
-    <row r="30" spans="2:10" ht="409.6" x14ac:dyDescent="0.4">
-      <c r="B30" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="49">
-        <v>1</v>
-      </c>
-      <c r="F30" s="49">
-        <v>1</v>
-      </c>
-      <c r="G30" s="65">
-        <v>1</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J30" s="30"/>
-    </row>
-    <row r="31" spans="2:10" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="B31" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="28">
-        <v>14</v>
-      </c>
-      <c r="E31" s="49">
-        <v>1</v>
-      </c>
-      <c r="F31" s="49">
-        <v>1</v>
-      </c>
-      <c r="G31" s="65">
-        <v>0</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="J31" s="30"/>
-    </row>
-    <row r="32" spans="2:10" ht="233.15" x14ac:dyDescent="0.4">
-      <c r="B32" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="49">
-        <v>1</v>
-      </c>
-      <c r="F32" s="49">
-        <v>1</v>
-      </c>
-      <c r="G32" s="65">
-        <v>0</v>
-      </c>
-      <c r="H32" s="19" t="s">
+      <c r="E32" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="76" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="I32" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="J32" s="30"/>
-    </row>
-    <row r="33" spans="2:10" ht="87.45" x14ac:dyDescent="0.4">
-      <c r="B33" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="28">
-        <v>14</v>
-      </c>
-      <c r="E33" s="49">
-        <v>1</v>
-      </c>
-      <c r="F33" s="49">
-        <v>1</v>
-      </c>
-      <c r="G33" s="65">
-        <v>0</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="I33" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="J33" s="30"/>
-    </row>
-    <row r="34" spans="2:10" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="B34" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="49">
-        <v>1</v>
-      </c>
-      <c r="F34" s="49">
-        <v>1</v>
-      </c>
-      <c r="G34" s="65">
-        <v>1</v>
-      </c>
-      <c r="H34" s="80" t="s">
+      <c r="I32" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I34" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="J34" s="30"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B35" s="72"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
+      <c r="J32" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:J35" xr:uid="{36AB5CB8-4A61-4A7E-8EB6-2F4C47C44909}"/>
+  <autoFilter ref="B4:J32" xr:uid="{36AB5CB8-4A61-4A7E-8EB6-2F4C47C44909}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{FE367CC5-FDD0-4373-975D-603FBF8972C5}">
+          <x14:cfRule type="iconSet" priority="8" id="{FE367CC5-FDD0-4373-975D-603FBF8972C5}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -3457,7 +3455,7 @@
               <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E5:H35</xm:sqref>
+          <xm:sqref>E5:H32</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/activity/POTStudyZone/POTStudyZone.xlsx
+++ b/activity/POTStudyZone/POTStudyZone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\POTStudyZone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A19C6C9-EF21-4357-957D-CC10180B61B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14B6A1E-114D-485C-9796-FA6BBB15D8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="130">
   <si>
     <t>Observaciones</t>
   </si>
@@ -553,6 +553,9 @@
     <t>Delimitación de inmuebles y terrenos de desarrollo o construcción prioritaria.</t>
   </si>
   <si>
+    <t>Localización de macroproyectos urbanos.</t>
+  </si>
+  <si>
     <t>Delimitación de planes parciales.
 Delimitación de uso del suelo en planes parciales.</t>
   </si>
@@ -954,9 +957,6 @@
     </r>
   </si>
   <si>
-    <t>Localización de macroproyectos urbanos (opcional).</t>
-  </si>
-  <si>
     <t>Localización de unidades de actuación urbanística (condicionado al desarrollo de planes parciales)</t>
   </si>
   <si>
@@ -1063,127 +1063,6 @@
         <family val="2"/>
       </rPr>
       <t>Delimitación de áreas de actividad.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Delimitación de las áreas de conservación y protección de los recursos naturales, paisajísticos (geomorfología), geográficos (o geomorfológicos)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>y ambientales, incluyendo las áreas de amenazas y riesgos, o que formen parte de los sistemas de provisión de los servicios públicos domiciliarios</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">o de </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>disposición final de desechos sólidos o líquidos.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Delimitación de la estructura ecológica principal.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Hidrografía y delimitación de cuencas.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Mapa geomorfologico.
-Mapa de suelos.
-Mapa de pendientes.
-Mapa de zonificación agroclimática.
-Mapa de uso potenciales del suelo rural.
-Mapa de cobertura y uso actual del suelo rural.
-Mapa de conflictos de uso del suelo rural.
-Mapa de zonificación de amenazas naturales y antrópicas en suelo rural.
-</t>
     </r>
   </si>
   <si>
@@ -1199,56 +1078,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Localización de actividades, infraestructuras y equipamientos básicos para garantizar adecuadas relaciones funcionales entre asentamientos y zonas urbanas y rurales.
-Localización de infraestructura para la disposición y tratamiento de residuos (p. ej., zonas libres PTAR).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Localización de terrenos en reserva para expansión de infraestructuras urbanas, terrenos y mejoras declarados como de utilidad pública o interés social.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Segoe UI Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>Localización de suelos para la infraestructura militar y policial estratégica básica (condicionado).</t>
-    </r>
-  </si>
-  <si>
     <t>Acción o alcance</t>
   </si>
   <si>
@@ -1331,6 +1160,179 @@
   </si>
   <si>
     <t>✓</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delimitación de las áreas de conservación y protección de los recursos naturales, paisajísticos (geomorfología), geográficos (o geomorfológicos)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>y ambientales, incluyendo las áreas de amenazas y riesgos, o que formen parte de los sistemas de provisión de los servicios públicos domiciliarios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">o de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>disposición final de desechos sólidos o líquidos.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delimitación de la estructura ecológica principal.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hidrografía y delimitación de cuencas.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mapa geomorfologico.
+Mapa de suelos.
+Mapa de pendientes.
+Mapa de zonificación agroclimática.
+Mapa de uso potenciales del suelo rural.
+Mapa de cobertura y uso actual del suelo rural.
+Mapa de conflictos de uso del suelo rural.
+Mapa de zonificación de amenazas naturales y antrópicas en suelo rural.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Localización de actividades, infraestructuras y equipamientos básicos para garantizar adecuadas relaciones funcionales entre asentamientos y zonas urbanas y rurales.
+Localización de infraestructura para la disposición y tratamiento de residuos (p. ej., zonas libres PTAR).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Localización de terrenos en reserva para expansión de infraestructuras urbanas, terrenos y mejoras declarados como de utilidad pública o interés social.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Localización de suelos para la infraestructura militar y policial estratégica básica (condicionado).</t>
+    </r>
+  </si>
+  <si>
+    <t>CG-05 Modelo de ocupación del territorio.</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1444,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1723,43 +1725,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1883,17 +1848,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </top>
@@ -1954,7 +1908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2055,15 +2009,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2076,7 +2021,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2091,48 +2036,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2157,19 +2102,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2178,13 +2117,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2193,20 +2132,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2490,9 +2432,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18551ED0-25A5-4100-BBD0-354E19A98CC0}">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -2509,38 +2451,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="41" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="45">
-        <v>29999</v>
-      </c>
-      <c r="F4" s="46"/>
+      <c r="C4" s="42">
+        <v>128968</v>
+      </c>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="2:6" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B6" s="10" t="s">
@@ -2571,7 +2513,7 @@
       </c>
       <c r="E7" s="8" t="str">
         <f>IF(C4&gt;D7,"Sí","")</f>
-        <v/>
+        <v>Sí</v>
       </c>
       <c r="F7" s="24"/>
     </row>
@@ -2591,7 +2533,7 @@
       </c>
       <c r="F8" s="24"/>
     </row>
-    <row r="9" spans="2:6" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
@@ -2603,11 +2545,11 @@
       </c>
       <c r="E9" s="9" t="str">
         <f>IF($C$4&lt;D8,"Sí","")</f>
-        <v>Sí</v>
+        <v/>
       </c>
       <c r="F9" s="25" t="str">
         <f>IF(AND(E9="Sí", C5= "Importante"),"Puede implementar PBOT, Art. 17 Ley 388 de 1997","")</f>
-        <v>Puede implementar PBOT, Art. 17 Ley 388 de 1997</v>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2632,10 +2574,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AB5CB8-4A61-4A7E-8EB6-2F4C47C44909}">
   <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H2" sqref="H2"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -2644,88 +2586,88 @@
     <col min="2" max="2" width="17.921875" style="5" customWidth="1"/>
     <col min="3" max="3" width="42.07421875" style="5" customWidth="1"/>
     <col min="4" max="4" width="7.07421875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.53515625" style="42" customWidth="1"/>
-    <col min="6" max="6" width="5.23046875" style="42" customWidth="1"/>
-    <col min="7" max="7" width="7.53515625" style="42" customWidth="1"/>
+    <col min="5" max="5" width="8.53515625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="5.23046875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="7.53515625" style="39" customWidth="1"/>
     <col min="8" max="9" width="41.15234375" style="5" customWidth="1"/>
     <col min="10" max="10" width="16.69140625" style="5" customWidth="1"/>
     <col min="11" max="16384" width="9.23046875" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="41" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="56" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="56"/>
-      <c r="J3" s="58"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="2:10" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B4" s="30" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="51" t="s">
         <v>31</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="40" t="s">
+    <row r="5" spans="2:10" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="B5" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
-    </row>
-    <row r="6" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="60" t="s">
+      <c r="E5" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
+    </row>
+    <row r="6" spans="2:10" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="B6" s="57" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -2734,16 +2676,16 @@
       <c r="D6" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="G6" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6" s="65" t="s">
+      <c r="E6" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="G6" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="62" t="s">
         <v>97</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -2751,8 +2693,8 @@
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="60" t="s">
+    <row r="7" spans="2:10" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="B7" s="57" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -2761,21 +2703,21 @@
       <c r="D7" s="19">
         <v>12</v>
       </c>
-      <c r="E7" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="73" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>127</v>
+      <c r="E7" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>125</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="1"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="60" t="s">
+    <row r="8" spans="2:10" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B8" s="57" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -2784,21 +2726,21 @@
       <c r="D8" s="19">
         <v>12</v>
       </c>
-      <c r="E8" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="73" t="s">
-        <v>127</v>
-      </c>
-      <c r="G8" s="70" t="s">
-        <v>127</v>
+      <c r="E8" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="67" t="s">
+        <v>125</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="1"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="60" t="s">
+    <row r="9" spans="2:10" ht="116.6" x14ac:dyDescent="0.4">
+      <c r="B9" s="57" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -2807,21 +2749,21 @@
       <c r="D9" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="G9" s="70" t="s">
-        <v>127</v>
+      <c r="E9" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="67" t="s">
+        <v>125</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="60" t="s">
+    <row r="10" spans="2:10" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B10" s="57" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -2830,16 +2772,16 @@
       <c r="D10" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10" s="65" t="s">
+      <c r="E10" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="62" t="s">
         <v>51</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -2847,8 +2789,8 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="60" t="s">
+    <row r="11" spans="2:10" ht="247.75" x14ac:dyDescent="0.4">
+      <c r="B11" s="57" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -2857,25 +2799,25 @@
       <c r="D11" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="70" t="s">
-        <v>127</v>
+      <c r="E11" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" s="67" t="s">
+        <v>125</v>
       </c>
       <c r="H11" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="60" t="s">
+    <row r="12" spans="2:10" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="B12" s="57" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="19" t="s">
@@ -2884,25 +2826,25 @@
       <c r="D12" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="F12" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="G12" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12" s="65" t="s">
-        <v>110</v>
+      <c r="E12" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="62" t="s">
+        <v>111</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>98</v>
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="60" t="s">
+    <row r="13" spans="2:10" ht="364.3" x14ac:dyDescent="0.4">
+      <c r="B13" s="57" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="19" t="s">
@@ -2911,52 +2853,52 @@
       <c r="D13" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>121</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="60" t="s">
+    <row r="14" spans="2:10" ht="335.15" x14ac:dyDescent="0.4">
+      <c r="B14" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="G14" s="84" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14" s="19" t="s">
+      <c r="E14" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="40" t="s">
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" ht="102" x14ac:dyDescent="0.4">
+      <c r="B15" s="37" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="34" t="s">
@@ -2965,48 +2907,48 @@
       <c r="D15" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="83" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" s="72" t="s">
-        <v>127</v>
+      <c r="E15" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="79" t="s">
+        <v>125</v>
       </c>
       <c r="H15" s="34"/>
       <c r="I15" s="35"/>
       <c r="J15" s="36"/>
     </row>
-    <row r="16" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="60" t="s">
+    <row r="16" spans="2:10" ht="291.45" x14ac:dyDescent="0.4">
+      <c r="B16" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="58" t="s">
         <v>67</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" s="81" t="s">
-        <v>128</v>
+      <c r="E16" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16" s="76" t="s">
+        <v>126</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="I16" s="62" t="s">
-        <v>126</v>
+        <v>112</v>
+      </c>
+      <c r="I16" s="59" t="s">
+        <v>124</v>
       </c>
       <c r="J16" s="29"/>
     </row>
-    <row r="17" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="60" t="s">
+    <row r="17" spans="2:10" ht="204" x14ac:dyDescent="0.4">
+      <c r="B17" s="57" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="27" t="s">
@@ -3015,25 +2957,25 @@
       <c r="D17" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="G17" s="81" t="s">
-        <v>128</v>
-      </c>
-      <c r="H17" s="63" t="s">
-        <v>125</v>
+      <c r="E17" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="60" t="s">
+        <v>123</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="60" t="s">
+    <row r="18" spans="2:10" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="B18" s="57" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="27" t="s">
@@ -3042,16 +2984,16 @@
       <c r="D18" s="27">
         <v>13</v>
       </c>
-      <c r="E18" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="F18" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="H18" s="65" t="s">
+      <c r="E18" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="62" t="s">
         <v>100</v>
       </c>
       <c r="I18" s="28" t="s">
@@ -3059,8 +3001,8 @@
       </c>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="60" t="s">
+    <row r="19" spans="2:10" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="B19" s="57" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -3069,25 +3011,25 @@
       <c r="D19" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="G19" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="H19" s="63" t="s">
+      <c r="E19" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="28" t="s">
-        <v>114</v>
-      </c>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="60" t="s">
+    <row r="20" spans="2:10" ht="72.900000000000006" x14ac:dyDescent="0.4">
+      <c r="B20" s="57" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="27" t="s">
@@ -3096,16 +3038,16 @@
       <c r="D20" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="G20" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="H20" s="65" t="s">
+      <c r="E20" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="62" t="s">
         <v>101</v>
       </c>
       <c r="I20" s="28" t="s">
@@ -3113,8 +3055,8 @@
       </c>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="60" t="s">
+    <row r="21" spans="2:10" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="B21" s="57" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="27" t="s">
@@ -3123,23 +3065,23 @@
       <c r="D21" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="F21" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="G21" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21" s="63" t="s">
+      <c r="E21" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="60" t="s">
         <v>117</v>
       </c>
       <c r="I21" s="28"/>
       <c r="J21" s="29"/>
     </row>
-    <row r="22" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="60" t="s">
+    <row r="22" spans="2:10" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="B22" s="57" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="27" t="s">
@@ -3148,23 +3090,25 @@
       <c r="D22" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="F22" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="75" t="s">
-        <v>127</v>
+      <c r="E22" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="70" t="s">
+        <v>125</v>
       </c>
       <c r="H22" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="I22" s="28"/>
+        <v>102</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>129</v>
+      </c>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="60" t="s">
+    <row r="23" spans="2:10" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="B23" s="57" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="27" t="s">
@@ -3173,25 +3117,25 @@
       <c r="D23" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="F23" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23" s="65" t="s">
-        <v>102</v>
+      <c r="E23" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="62" t="s">
+        <v>103</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>90</v>
       </c>
       <c r="J23" s="29"/>
     </row>
-    <row r="24" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="60" t="s">
+    <row r="24" spans="2:10" ht="160.30000000000001" x14ac:dyDescent="0.4">
+      <c r="B24" s="57" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="27" t="s">
@@ -3200,77 +3144,77 @@
       <c r="D24" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24" s="64" t="s">
-        <v>103</v>
+      <c r="E24" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="61" t="s">
+        <v>104</v>
       </c>
       <c r="I24" s="28"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="60" t="s">
+    <row r="25" spans="2:10" ht="364.3" x14ac:dyDescent="0.4">
+      <c r="B25" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="G25" s="81" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25" s="64" t="s">
+      <c r="E25" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J25" s="29"/>
-    </row>
-    <row r="26" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="40" t="s">
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="2:10" ht="145.75" x14ac:dyDescent="0.4">
+      <c r="B26" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="G26" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="H26" s="66" t="s">
+      <c r="E26" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="I26" s="38" t="s">
+      <c r="I26" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="J26" s="39"/>
-    </row>
-    <row r="27" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="60" t="s">
+      <c r="J26" s="36"/>
+    </row>
+    <row r="27" spans="2:10" ht="102" x14ac:dyDescent="0.4">
+      <c r="B27" s="57" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="27" t="s">
@@ -3279,25 +3223,25 @@
       <c r="D27" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="G27" s="75" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="67" t="s">
+      <c r="E27" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="64" t="s">
         <v>84</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J27" s="29"/>
     </row>
-    <row r="28" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="60" t="s">
+    <row r="28" spans="2:10" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="B28" s="57" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="27" t="s">
@@ -3306,25 +3250,25 @@
       <c r="D28" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="F28" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="G28" s="81" t="s">
-        <v>128</v>
+      <c r="E28" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="76" t="s">
+        <v>126</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>94</v>
       </c>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="60" t="s">
+    <row r="29" spans="2:10" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="B29" s="57" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="27" t="s">
@@ -3333,25 +3277,25 @@
       <c r="D29" s="27">
         <v>14</v>
       </c>
-      <c r="E29" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="G29" s="75" t="s">
-        <v>127</v>
+      <c r="E29" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="70" t="s">
+        <v>125</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>93</v>
       </c>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="60" t="s">
+    <row r="30" spans="2:10" ht="233.15" x14ac:dyDescent="0.4">
+      <c r="B30" s="57" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="27" t="s">
@@ -3360,25 +3304,25 @@
       <c r="D30" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="F30" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="G30" s="75" t="s">
-        <v>127</v>
+      <c r="E30" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="70" t="s">
+        <v>125</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>95</v>
       </c>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="60" t="s">
+    <row r="31" spans="2:10" ht="87.45" x14ac:dyDescent="0.4">
+      <c r="B31" s="57" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="27" t="s">
@@ -3387,25 +3331,25 @@
       <c r="D31" s="27">
         <v>14</v>
       </c>
-      <c r="E31" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="F31" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="G31" s="75" t="s">
-        <v>127</v>
+      <c r="E31" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="70" t="s">
+        <v>125</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I31" s="28" t="s">
         <v>85</v>
       </c>
       <c r="J31" s="29"/>
     </row>
-    <row r="32" spans="2:10" ht="15.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="68" t="s">
+    <row r="32" spans="2:10" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="B32" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="26" t="s">
@@ -3414,20 +3358,20 @@
       <c r="D32" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="76" t="s">
-        <v>128</v>
-      </c>
-      <c r="F32" s="76" t="s">
-        <v>128</v>
-      </c>
-      <c r="G32" s="77" t="s">
-        <v>128</v>
-      </c>
-      <c r="H32" s="69" t="s">
-        <v>106</v>
+      <c r="E32" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32" s="66" t="s">
+        <v>107</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J32" s="4"/>
     </row>
@@ -3435,31 +3379,6 @@
   <autoFilter ref="B4:J32" xr:uid="{36AB5CB8-4A61-4A7E-8EB6-2F4C47C44909}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{FE367CC5-FDD0-4373-975D-603FBF8972C5}">
-            <x14:iconSet showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="percent">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
-              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
-              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>E5:H32</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 

--- a/activity/POTStudyZone/POTStudyZone.xlsx
+++ b/activity/POTStudyZone/POTStudyZone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\POTStudyZone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14B6A1E-114D-485C-9796-FA6BBB15D8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1704C3-CE41-43C8-BD44-A1301CD5394C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="2" r:id="rId1"/>
@@ -439,9 +439,6 @@
 DR-19 Altura de edificaciones en Centros Poblados Rurales (CPR).</t>
   </si>
   <si>
-    <t>DU-02 Zonificación de amenazas naturales y atrópicas en suelo urbano.</t>
-  </si>
-  <si>
     <t>Localización de acciones prioritarias sobre el territorio a ordenar.</t>
   </si>
   <si>
@@ -1333,6 +1330,9 @@
   </si>
   <si>
     <t>CG-05 Modelo de ocupación del territorio.</t>
+  </si>
+  <si>
+    <t>DU-02 Zonificación de amenazas naturales y antrópicas en suelo urbano.</t>
   </si>
 </sst>
 </file>
@@ -2432,30 +2432,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18551ED0-25A5-4100-BBD0-354E19A98CC0}">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.69140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="41.61328125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.3046875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.07421875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7.07421875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.15234375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="21.69140625" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9.23046875" style="5"/>
+    <col min="1" max="1" width="2.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="41.59765625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.06640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.06640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.9296875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.1328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" s="41" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" s="48" t="s">
         <v>60</v>
       </c>
@@ -2464,7 +2464,7 @@
       <c r="E3" s="49"/>
       <c r="F3" s="50"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" s="38" t="s">
         <v>57</v>
       </c>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="F4" s="43"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" s="44" t="s">
         <v>58</v>
       </c>
@@ -2484,7 +2484,7 @@
       <c r="E5" s="46"/>
       <c r="F5" s="47"/>
     </row>
-    <row r="6" spans="2:6" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" ht="33" x14ac:dyDescent="0.45">
       <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" s="13" t="s">
         <v>3</v>
       </c>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="F7" s="24"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8" s="13" t="s">
         <v>5</v>
       </c>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="F8" s="24"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
@@ -2572,34 +2572,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AB5CB8-4A61-4A7E-8EB6-2F4C47C44909}">
-  <dimension ref="B2:L32"/>
+  <dimension ref="B2:J32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H2" sqref="H2"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.69140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.921875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="42.07421875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="7.07421875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.53515625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="5.23046875" style="39" customWidth="1"/>
-    <col min="7" max="7" width="7.53515625" style="39" customWidth="1"/>
-    <col min="8" max="9" width="41.15234375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="16.69140625" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9.23046875" style="5"/>
+    <col min="1" max="1" width="2.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.9296875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="42.06640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="7.06640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.53125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="5.19921875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="7.53125" style="39" customWidth="1"/>
+    <col min="8" max="9" width="41.1328125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B2" s="41" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B3" s="52" t="s">
         <v>61</v>
       </c>
@@ -2614,12 +2614,12 @@
       <c r="I3" s="53"/>
       <c r="J3" s="55"/>
     </row>
-    <row r="4" spans="2:10" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" ht="30.75" x14ac:dyDescent="0.45">
       <c r="B4" s="30" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>22</v>
@@ -2634,16 +2634,16 @@
         <v>31</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" ht="76.900000000000006" x14ac:dyDescent="0.45">
       <c r="B5" s="37" t="s">
         <v>52</v>
       </c>
@@ -2654,19 +2654,19 @@
         <v>44</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" s="73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G5" s="75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H5" s="34"/>
       <c r="I5" s="35"/>
       <c r="J5" s="36"/>
     </row>
-    <row r="6" spans="2:10" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" ht="61.5" x14ac:dyDescent="0.45">
       <c r="B6" s="57" t="s">
         <v>11</v>
       </c>
@@ -2677,23 +2677,23 @@
         <v>44</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F6" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G6" s="67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H6" s="62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="2:10" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:10" ht="61.5" x14ac:dyDescent="0.45">
       <c r="B7" s="57" t="s">
         <v>11</v>
       </c>
@@ -2704,19 +2704,19 @@
         <v>12</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="1"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="2:10" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" ht="46.15" x14ac:dyDescent="0.45">
       <c r="B8" s="57" t="s">
         <v>11</v>
       </c>
@@ -2727,19 +2727,19 @@
         <v>12</v>
       </c>
       <c r="E8" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G8" s="67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="1"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="2:10" ht="116.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" ht="138.4" x14ac:dyDescent="0.45">
       <c r="B9" s="57" t="s">
         <v>11</v>
       </c>
@@ -2750,19 +2750,19 @@
         <v>69</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F9" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G9" s="67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="2:10" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" ht="46.15" x14ac:dyDescent="0.45">
       <c r="B10" s="57" t="s">
         <v>11</v>
       </c>
@@ -2773,13 +2773,13 @@
         <v>44</v>
       </c>
       <c r="E10" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F10" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G10" s="67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H10" s="62" t="s">
         <v>51</v>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10" ht="247.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" ht="261.39999999999998" x14ac:dyDescent="0.45">
       <c r="B11" s="57" t="s">
         <v>11</v>
       </c>
@@ -2800,23 +2800,23 @@
         <v>69</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F11" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G11" s="67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" ht="92.25" x14ac:dyDescent="0.45">
       <c r="B12" s="57" t="s">
         <v>11</v>
       </c>
@@ -2827,23 +2827,23 @@
         <v>69</v>
       </c>
       <c r="E12" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F12" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G12" s="67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H12" s="62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10" ht="364.3" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" ht="384.4" x14ac:dyDescent="0.45">
       <c r="B13" s="57" t="s">
         <v>11</v>
       </c>
@@ -2854,23 +2854,23 @@
         <v>69</v>
       </c>
       <c r="E13" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G13" s="67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10" ht="335.15" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" ht="369" x14ac:dyDescent="0.45">
       <c r="B14" s="65" t="s">
         <v>11</v>
       </c>
@@ -2881,23 +2881,23 @@
         <v>66</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G14" s="72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>87</v>
       </c>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="2:10" ht="102" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" ht="107.65" x14ac:dyDescent="0.45">
       <c r="B15" s="37" t="s">
         <v>53</v>
       </c>
@@ -2908,19 +2908,19 @@
         <v>63</v>
       </c>
       <c r="E15" s="73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F15" s="78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G15" s="79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H15" s="34"/>
       <c r="I15" s="35"/>
       <c r="J15" s="36"/>
     </row>
-    <row r="16" spans="2:10" ht="291.45" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" ht="307.5" x14ac:dyDescent="0.45">
       <c r="B16" s="57" t="s">
         <v>12</v>
       </c>
@@ -2931,23 +2931,23 @@
         <v>70</v>
       </c>
       <c r="E16" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F16" s="74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G16" s="76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I16" s="59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J16" s="29"/>
     </row>
-    <row r="17" spans="2:10" ht="204" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="215.25" x14ac:dyDescent="0.45">
       <c r="B17" s="57" t="s">
         <v>12</v>
       </c>
@@ -2958,23 +2958,23 @@
         <v>71</v>
       </c>
       <c r="E17" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F17" s="74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G17" s="76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H17" s="60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" spans="2:10" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="46.15" x14ac:dyDescent="0.45">
       <c r="B18" s="57" t="s">
         <v>12</v>
       </c>
@@ -2985,23 +2985,23 @@
         <v>13</v>
       </c>
       <c r="E18" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F18" s="69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G18" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H18" s="62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I18" s="28" t="s">
         <v>88</v>
       </c>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="2:10" ht="189.45" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="215.25" x14ac:dyDescent="0.45">
       <c r="B19" s="57" t="s">
         <v>12</v>
       </c>
@@ -3012,23 +3012,23 @@
         <v>74</v>
       </c>
       <c r="E19" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F19" s="74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G19" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H19" s="60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" spans="2:10" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="76.900000000000006" x14ac:dyDescent="0.45">
       <c r="B20" s="57" t="s">
         <v>12</v>
       </c>
@@ -3039,23 +3039,23 @@
         <v>75</v>
       </c>
       <c r="E20" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F20" s="69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G20" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H20" s="62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I20" s="28" t="s">
         <v>89</v>
       </c>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="2:10" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="107.65" x14ac:dyDescent="0.45">
       <c r="B21" s="57" t="s">
         <v>12</v>
       </c>
@@ -3066,21 +3066,21 @@
         <v>73</v>
       </c>
       <c r="E21" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F21" s="69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G21" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H21" s="60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I21" s="28"/>
       <c r="J21" s="29"/>
     </row>
-    <row r="22" spans="2:10" ht="218.6" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="230.65" x14ac:dyDescent="0.45">
       <c r="B22" s="57" t="s">
         <v>12</v>
       </c>
@@ -3091,23 +3091,23 @@
         <v>55</v>
       </c>
       <c r="E22" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F22" s="69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G22" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H22" s="64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="2:10" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="92.25" x14ac:dyDescent="0.45">
       <c r="B23" s="57" t="s">
         <v>12</v>
       </c>
@@ -3118,23 +3118,23 @@
         <v>65</v>
       </c>
       <c r="E23" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F23" s="69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G23" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H23" s="62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>90</v>
       </c>
       <c r="J23" s="29"/>
     </row>
-    <row r="24" spans="2:10" ht="160.30000000000001" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="169.15" x14ac:dyDescent="0.45">
       <c r="B24" s="57" t="s">
         <v>12</v>
       </c>
@@ -3145,21 +3145,21 @@
         <v>45</v>
       </c>
       <c r="E24" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F24" s="74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G24" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H24" s="61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I24" s="28"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="2:10" ht="364.3" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="384.4" x14ac:dyDescent="0.45">
       <c r="B25" s="65" t="s">
         <v>12</v>
       </c>
@@ -3170,23 +3170,23 @@
         <v>46</v>
       </c>
       <c r="E25" s="71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F25" s="71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G25" s="72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H25" s="80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>91</v>
       </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="2:10" ht="145.75" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="153.75" x14ac:dyDescent="0.45">
       <c r="B26" s="37" t="s">
         <v>54</v>
       </c>
@@ -3197,13 +3197,13 @@
         <v>47</v>
       </c>
       <c r="E26" s="73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F26" s="73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G26" s="75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H26" s="63" t="s">
         <v>83</v>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="J26" s="36"/>
     </row>
-    <row r="27" spans="2:10" ht="102" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="107.65" x14ac:dyDescent="0.45">
       <c r="B27" s="57" t="s">
         <v>13</v>
       </c>
@@ -3224,23 +3224,23 @@
         <v>68</v>
       </c>
       <c r="E27" s="74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F27" s="74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G27" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H27" s="64" t="s">
         <v>84</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J27" s="29"/>
     </row>
-    <row r="28" spans="2:10" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="409.5" x14ac:dyDescent="0.45">
       <c r="B28" s="57" t="s">
         <v>13</v>
       </c>
@@ -3251,23 +3251,23 @@
         <v>72</v>
       </c>
       <c r="E28" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="F28" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="19" t="s">
         <v>126</v>
-      </c>
-      <c r="F28" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="G28" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>94</v>
       </c>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="2:10" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="138.4" x14ac:dyDescent="0.45">
       <c r="B29" s="57" t="s">
         <v>13</v>
       </c>
@@ -3278,23 +3278,23 @@
         <v>14</v>
       </c>
       <c r="E29" s="74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F29" s="74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G29" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>93</v>
       </c>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" spans="2:10" ht="233.15" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="246" x14ac:dyDescent="0.45">
       <c r="B30" s="57" t="s">
         <v>13</v>
       </c>
@@ -3305,23 +3305,23 @@
         <v>76</v>
       </c>
       <c r="E30" s="74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F30" s="74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G30" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>95</v>
       </c>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="2:10" ht="87.45" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="92.25" x14ac:dyDescent="0.45">
       <c r="B31" s="57" t="s">
         <v>13</v>
       </c>
@@ -3332,23 +3332,23 @@
         <v>14</v>
       </c>
       <c r="E31" s="74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F31" s="74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G31" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I31" s="28" t="s">
         <v>85</v>
       </c>
       <c r="J31" s="29"/>
     </row>
-    <row r="32" spans="2:10" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="61.5" x14ac:dyDescent="0.45">
       <c r="B32" s="65" t="s">
         <v>13</v>
       </c>
@@ -3359,19 +3359,19 @@
         <v>47</v>
       </c>
       <c r="E32" s="71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F32" s="71" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G32" s="72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H32" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="J32" s="4"/>
     </row>
@@ -3390,21 +3390,21 @@
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.69140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.15234375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="36.23046875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="2.69140625" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="9.23046875" style="5"/>
+    <col min="1" max="1" width="2.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.1328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.19921875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="9.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B3" s="21" t="s">
         <v>15</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" s="22" t="s">
         <v>16</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" ht="33" x14ac:dyDescent="0.45">
       <c r="B5" s="23" t="s">
         <v>17</v>
       </c>

--- a/activity/POTStudyZone/POTStudyZone.xlsx
+++ b/activity/POTStudyZone/POTStudyZone.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\POTStudyZone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1704C3-CE41-43C8-BD44-A1301CD5394C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DB6AAE-90A3-4FF6-921A-161B59426BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-111" yWindow="-111" windowWidth="26554" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Setup" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ComponenteAccion!$B$4:$J$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ComponenteAccion!$B$4:$K$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="131">
   <si>
     <t>Observaciones</t>
   </si>
@@ -1333,6 +1333,9 @@
   </si>
   <si>
     <t>DU-02 Zonificación de amenazas naturales y antrópicas en suelo urbano.</t>
+  </si>
+  <si>
+    <t>Art. POT Municipal</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1447,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1904,11 +1907,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2149,6 +2194,24 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2572,12 +2635,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AB5CB8-4A61-4A7E-8EB6-2F4C47C44909}">
-  <dimension ref="B2:J32"/>
+  <dimension ref="B2:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H2" sqref="H2"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -2589,17 +2652,18 @@
     <col min="5" max="5" width="8.53125" style="39" customWidth="1"/>
     <col min="6" max="6" width="5.19921875" style="39" customWidth="1"/>
     <col min="7" max="7" width="7.53125" style="39" customWidth="1"/>
-    <col min="8" max="9" width="41.1328125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9.19921875" style="5"/>
+    <col min="8" max="8" width="13.19921875" style="39" customWidth="1"/>
+    <col min="9" max="10" width="41.1328125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B2" s="41" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B3" s="52" t="s">
         <v>61</v>
       </c>
@@ -2608,13 +2672,14 @@
       <c r="E3" s="54"/>
       <c r="F3" s="54"/>
       <c r="G3" s="56"/>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="54"/>
+      <c r="I3" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="55"/>
-    </row>
-    <row r="4" spans="2:10" ht="30.75" x14ac:dyDescent="0.45">
+      <c r="J3" s="53"/>
+      <c r="K3" s="55"/>
+    </row>
+    <row r="4" spans="2:11" ht="30.75" x14ac:dyDescent="0.45">
       <c r="B4" s="30" t="s">
         <v>43</v>
       </c>
@@ -2634,16 +2699,19 @@
         <v>31</v>
       </c>
       <c r="H4" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="J4" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="K4" s="33" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="76.900000000000006" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:11" ht="76.900000000000006" x14ac:dyDescent="0.45">
       <c r="B5" s="37" t="s">
         <v>52</v>
       </c>
@@ -2662,11 +2730,12 @@
       <c r="G5" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36"/>
-    </row>
-    <row r="6" spans="2:10" ht="61.5" x14ac:dyDescent="0.45">
+      <c r="H5" s="81"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="36"/>
+    </row>
+    <row r="6" spans="2:11" ht="61.5" x14ac:dyDescent="0.45">
       <c r="B6" s="57" t="s">
         <v>11</v>
       </c>
@@ -2685,15 +2754,16 @@
       <c r="G6" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="82"/>
+      <c r="I6" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="2:10" ht="61.5" x14ac:dyDescent="0.45">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:11" ht="61.5" x14ac:dyDescent="0.45">
       <c r="B7" s="57" t="s">
         <v>11</v>
       </c>
@@ -2712,11 +2782,12 @@
       <c r="G7" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="2:10" ht="46.15" x14ac:dyDescent="0.45">
+      <c r="H7" s="82"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" ht="46.15" x14ac:dyDescent="0.45">
       <c r="B8" s="57" t="s">
         <v>11</v>
       </c>
@@ -2735,11 +2806,12 @@
       <c r="G8" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="2:10" ht="138.4" x14ac:dyDescent="0.45">
+      <c r="H8" s="82"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" ht="138.4" x14ac:dyDescent="0.45">
       <c r="B9" s="57" t="s">
         <v>11</v>
       </c>
@@ -2758,11 +2830,12 @@
       <c r="G9" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="2:10" ht="46.15" x14ac:dyDescent="0.45">
+      <c r="H9" s="82"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:11" ht="46.15" x14ac:dyDescent="0.45">
       <c r="B10" s="57" t="s">
         <v>11</v>
       </c>
@@ -2781,15 +2854,16 @@
       <c r="G10" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="62" t="s">
+      <c r="H10" s="82"/>
+      <c r="I10" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="2:10" ht="261.39999999999998" x14ac:dyDescent="0.45">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11" ht="261.39999999999998" x14ac:dyDescent="0.45">
       <c r="B11" s="57" t="s">
         <v>11</v>
       </c>
@@ -2808,15 +2882,16 @@
       <c r="G11" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="82"/>
+      <c r="I11" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="2:10" ht="92.25" x14ac:dyDescent="0.45">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" ht="92.25" x14ac:dyDescent="0.45">
       <c r="B12" s="57" t="s">
         <v>11</v>
       </c>
@@ -2835,15 +2910,16 @@
       <c r="G12" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="62" t="s">
+      <c r="H12" s="82"/>
+      <c r="I12" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="2:10" ht="384.4" x14ac:dyDescent="0.45">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" ht="384.4" x14ac:dyDescent="0.45">
       <c r="B13" s="57" t="s">
         <v>11</v>
       </c>
@@ -2862,15 +2938,16 @@
       <c r="G13" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="82"/>
+      <c r="I13" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" ht="369" x14ac:dyDescent="0.45">
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" ht="369" x14ac:dyDescent="0.45">
       <c r="B14" s="65" t="s">
         <v>11</v>
       </c>
@@ -2889,15 +2966,16 @@
       <c r="G14" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="83"/>
+      <c r="I14" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:10" ht="107.65" x14ac:dyDescent="0.45">
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="2:11" ht="107.65" x14ac:dyDescent="0.45">
       <c r="B15" s="37" t="s">
         <v>53</v>
       </c>
@@ -2916,11 +2994,12 @@
       <c r="G15" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="36"/>
-    </row>
-    <row r="16" spans="2:10" ht="307.5" x14ac:dyDescent="0.45">
+      <c r="H15" s="84"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="2:11" ht="307.5" x14ac:dyDescent="0.45">
       <c r="B16" s="57" t="s">
         <v>12</v>
       </c>
@@ -2939,15 +3018,16 @@
       <c r="G16" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="85"/>
+      <c r="I16" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="I16" s="59" t="s">
+      <c r="J16" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="J16" s="29"/>
-    </row>
-    <row r="17" spans="2:10" ht="215.25" x14ac:dyDescent="0.45">
+      <c r="K16" s="29"/>
+    </row>
+    <row r="17" spans="2:11" ht="215.25" x14ac:dyDescent="0.45">
       <c r="B17" s="57" t="s">
         <v>12</v>
       </c>
@@ -2966,15 +3046,16 @@
       <c r="G17" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="H17" s="60" t="s">
+      <c r="H17" s="85"/>
+      <c r="I17" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="J17" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="J17" s="29"/>
-    </row>
-    <row r="18" spans="2:10" ht="46.15" x14ac:dyDescent="0.45">
+      <c r="K17" s="29"/>
+    </row>
+    <row r="18" spans="2:11" ht="46.15" x14ac:dyDescent="0.45">
       <c r="B18" s="57" t="s">
         <v>12</v>
       </c>
@@ -2993,15 +3074,16 @@
       <c r="G18" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="62" t="s">
+      <c r="H18" s="86"/>
+      <c r="I18" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="I18" s="28" t="s">
+      <c r="J18" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="J18" s="29"/>
-    </row>
-    <row r="19" spans="2:10" ht="215.25" x14ac:dyDescent="0.45">
+      <c r="K18" s="29"/>
+    </row>
+    <row r="19" spans="2:11" ht="215.25" x14ac:dyDescent="0.45">
       <c r="B19" s="57" t="s">
         <v>12</v>
       </c>
@@ -3020,15 +3102,16 @@
       <c r="G19" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="60" t="s">
+      <c r="H19" s="86"/>
+      <c r="I19" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="28" t="s">
+      <c r="J19" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="J19" s="29"/>
-    </row>
-    <row r="20" spans="2:10" ht="76.900000000000006" x14ac:dyDescent="0.45">
+      <c r="K19" s="29"/>
+    </row>
+    <row r="20" spans="2:11" ht="76.900000000000006" x14ac:dyDescent="0.45">
       <c r="B20" s="57" t="s">
         <v>12</v>
       </c>
@@ -3047,15 +3130,16 @@
       <c r="G20" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="H20" s="62" t="s">
+      <c r="H20" s="86"/>
+      <c r="I20" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="J20" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="J20" s="29"/>
-    </row>
-    <row r="21" spans="2:10" ht="107.65" x14ac:dyDescent="0.45">
+      <c r="K20" s="29"/>
+    </row>
+    <row r="21" spans="2:11" ht="107.65" x14ac:dyDescent="0.45">
       <c r="B21" s="57" t="s">
         <v>12</v>
       </c>
@@ -3074,13 +3158,14 @@
       <c r="G21" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="H21" s="60" t="s">
+      <c r="H21" s="86"/>
+      <c r="I21" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
-    </row>
-    <row r="22" spans="2:10" ht="230.65" x14ac:dyDescent="0.45">
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+    </row>
+    <row r="22" spans="2:11" ht="230.65" x14ac:dyDescent="0.45">
       <c r="B22" s="57" t="s">
         <v>12</v>
       </c>
@@ -3099,15 +3184,16 @@
       <c r="G22" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="H22" s="64" t="s">
+      <c r="H22" s="86"/>
+      <c r="I22" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="I22" s="28" t="s">
+      <c r="J22" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="J22" s="29"/>
-    </row>
-    <row r="23" spans="2:10" ht="92.25" x14ac:dyDescent="0.45">
+      <c r="K22" s="29"/>
+    </row>
+    <row r="23" spans="2:11" ht="92.25" x14ac:dyDescent="0.45">
       <c r="B23" s="57" t="s">
         <v>12</v>
       </c>
@@ -3126,15 +3212,16 @@
       <c r="G23" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="H23" s="62" t="s">
+      <c r="H23" s="86"/>
+      <c r="I23" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="I23" s="28" t="s">
+      <c r="J23" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="2:10" ht="169.15" x14ac:dyDescent="0.45">
+      <c r="K23" s="29"/>
+    </row>
+    <row r="24" spans="2:11" ht="169.15" x14ac:dyDescent="0.45">
       <c r="B24" s="57" t="s">
         <v>12</v>
       </c>
@@ -3153,13 +3240,14 @@
       <c r="G24" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="H24" s="61" t="s">
+      <c r="H24" s="86"/>
+      <c r="I24" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
-    </row>
-    <row r="25" spans="2:10" ht="384.4" x14ac:dyDescent="0.45">
+      <c r="J24" s="28"/>
+      <c r="K24" s="29"/>
+    </row>
+    <row r="25" spans="2:11" ht="384.4" x14ac:dyDescent="0.45">
       <c r="B25" s="65" t="s">
         <v>12</v>
       </c>
@@ -3178,15 +3266,16 @@
       <c r="G25" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="H25" s="80" t="s">
+      <c r="H25" s="83"/>
+      <c r="I25" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="2:10" ht="153.75" x14ac:dyDescent="0.45">
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="2:11" ht="153.75" x14ac:dyDescent="0.45">
       <c r="B26" s="37" t="s">
         <v>54</v>
       </c>
@@ -3205,15 +3294,16 @@
       <c r="G26" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="H26" s="63" t="s">
+      <c r="H26" s="81"/>
+      <c r="I26" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="I26" s="35" t="s">
+      <c r="J26" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="2:10" ht="107.65" x14ac:dyDescent="0.45">
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" spans="2:11" ht="107.65" x14ac:dyDescent="0.45">
       <c r="B27" s="57" t="s">
         <v>13</v>
       </c>
@@ -3232,15 +3322,16 @@
       <c r="G27" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="64" t="s">
+      <c r="H27" s="86"/>
+      <c r="I27" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="I27" s="28" t="s">
+      <c r="J27" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="J27" s="29"/>
-    </row>
-    <row r="28" spans="2:10" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="K27" s="29"/>
+    </row>
+    <row r="28" spans="2:11" ht="409.5" x14ac:dyDescent="0.45">
       <c r="B28" s="57" t="s">
         <v>13</v>
       </c>
@@ -3259,15 +3350,16 @@
       <c r="G28" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="85"/>
+      <c r="I28" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J28" s="29"/>
-    </row>
-    <row r="29" spans="2:10" ht="138.4" x14ac:dyDescent="0.45">
+      <c r="K28" s="29"/>
+    </row>
+    <row r="29" spans="2:11" ht="138.4" x14ac:dyDescent="0.45">
       <c r="B29" s="57" t="s">
         <v>13</v>
       </c>
@@ -3286,15 +3378,16 @@
       <c r="G29" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="H29" s="19" t="s">
+      <c r="H29" s="86"/>
+      <c r="I29" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="I29" s="28" t="s">
+      <c r="J29" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="J29" s="29"/>
-    </row>
-    <row r="30" spans="2:10" ht="246" x14ac:dyDescent="0.45">
+      <c r="K29" s="29"/>
+    </row>
+    <row r="30" spans="2:11" ht="246" x14ac:dyDescent="0.45">
       <c r="B30" s="57" t="s">
         <v>13</v>
       </c>
@@ -3313,15 +3406,16 @@
       <c r="G30" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="86"/>
+      <c r="I30" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="I30" s="28" t="s">
+      <c r="J30" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="J30" s="29"/>
-    </row>
-    <row r="31" spans="2:10" ht="92.25" x14ac:dyDescent="0.45">
+      <c r="K30" s="29"/>
+    </row>
+    <row r="31" spans="2:11" ht="92.25" x14ac:dyDescent="0.45">
       <c r="B31" s="57" t="s">
         <v>13</v>
       </c>
@@ -3340,15 +3434,16 @@
       <c r="G31" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="86"/>
+      <c r="I31" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="I31" s="28" t="s">
+      <c r="J31" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="J31" s="29"/>
-    </row>
-    <row r="32" spans="2:10" ht="61.5" x14ac:dyDescent="0.45">
+      <c r="K31" s="29"/>
+    </row>
+    <row r="32" spans="2:11" ht="61.5" x14ac:dyDescent="0.45">
       <c r="B32" s="65" t="s">
         <v>13</v>
       </c>
@@ -3367,16 +3462,17 @@
       <c r="G32" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="H32" s="66" t="s">
+      <c r="H32" s="83"/>
+      <c r="I32" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="B4:J32" xr:uid="{36AB5CB8-4A61-4A7E-8EB6-2F4C47C44909}"/>
+  <autoFilter ref="B4:K32" xr:uid="{36AB5CB8-4A61-4A7E-8EB6-2F4C47C44909}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
